--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/massoudmaher/Documents/Code/immunedeconv/inst/extdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080301E4-E49B-0949-985F-458DC85F8567}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="27100" windowHeight="17080" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="controlled_vocabulary" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="mapping" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="README" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="controlled_vocabulary" sheetId="1" r:id="rId1"/>
+    <sheet name="mapping" sheetId="2" r:id="rId2"/>
+    <sheet name="README" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,709 +33,799 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="224">
-  <si>
-    <t xml:space="preserve">cell_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">root2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">root is a protected entity in the data.tree library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell plasma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class-switched memory B cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanoma cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancer cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovarian carcinoma cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immune cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hematopoietic stem cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lymphoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">myeloid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common lymphoid progenitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasmacytoid dendritic cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage M0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only in cibersort, still count all other subtypes as "all t cells" if they do only distinguish M1/M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage/Monocyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cell activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cell resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocytic lineage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myeloid dendritic cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basophil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common myeloid progenitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granulocyte-monocyte progenitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myeloid dendritic cell activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only in cibersort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myeloid dendritic cell resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eosinophil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutrophil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cell activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cell resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancer associated fibroblast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endothelial cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytotoxicity score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immune score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">microenvironment score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stroma score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell gamma delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only in cibersort, still count all other subtypes as "all t cells" if they do not predict gdT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell NK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ (non-regulatory)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ Th1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ Th2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell regulatory (Tregs)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="260">
+  <si>
+    <t>cell_type</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>root2</t>
+  </si>
+  <si>
+    <t>root is a protected entity in the data.tree library</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>B cell memory</t>
+  </si>
+  <si>
+    <t>B cell</t>
+  </si>
+  <si>
+    <t>B cell naive</t>
+  </si>
+  <si>
+    <t>B cell plasma</t>
+  </si>
+  <si>
+    <t>Class-switched memory B cell</t>
+  </si>
+  <si>
+    <t>Melanoma cell</t>
+  </si>
+  <si>
+    <t>cancer cell</t>
+  </si>
+  <si>
+    <t>Ovarian carcinoma cell</t>
+  </si>
+  <si>
+    <t>immune cell</t>
+  </si>
+  <si>
+    <t>other cell</t>
+  </si>
+  <si>
+    <t>Hematopoietic stem cell</t>
+  </si>
+  <si>
+    <t>lymphoid</t>
+  </si>
+  <si>
+    <t>myeloid</t>
+  </si>
+  <si>
+    <t>Common lymphoid progenitor</t>
+  </si>
+  <si>
+    <t>NK cell</t>
+  </si>
+  <si>
+    <t>Plasmacytoid dendritic cell</t>
+  </si>
+  <si>
+    <t>T cell</t>
+  </si>
+  <si>
+    <t>Macrophage M0</t>
+  </si>
+  <si>
+    <t>Macrophage</t>
+  </si>
+  <si>
+    <t>only in cibersort, still count all other subtypes as "all t cells" if they do only distinguish M1/M2</t>
+  </si>
+  <si>
+    <t>Macrophage M1</t>
+  </si>
+  <si>
+    <t>Macrophage M2</t>
+  </si>
+  <si>
+    <t>Macrophage/Monocyte</t>
+  </si>
+  <si>
+    <t>Monocyte</t>
+  </si>
+  <si>
+    <t>Mast cell activated</t>
+  </si>
+  <si>
+    <t>Mast cell</t>
+  </si>
+  <si>
+    <t>Mast cell resting</t>
+  </si>
+  <si>
+    <t>Monocytic lineage</t>
+  </si>
+  <si>
+    <t>Myeloid dendritic cell</t>
+  </si>
+  <si>
+    <t>Basophil</t>
+  </si>
+  <si>
+    <t>Common myeloid progenitor</t>
+  </si>
+  <si>
+    <t>Granulocyte-monocyte progenitor</t>
+  </si>
+  <si>
+    <t>Myeloid dendritic cell activated</t>
+  </si>
+  <si>
+    <t>only in cibersort</t>
+  </si>
+  <si>
+    <t>Myeloid dendritic cell resting</t>
+  </si>
+  <si>
+    <t>Eosinophil</t>
+  </si>
+  <si>
+    <t>Neutrophil</t>
+  </si>
+  <si>
+    <t>NK cell activated</t>
+  </si>
+  <si>
+    <t>NK cell resting</t>
+  </si>
+  <si>
+    <t>Cancer associated fibroblast</t>
+  </si>
+  <si>
+    <t>Endothelial cell</t>
+  </si>
+  <si>
+    <t>cytotoxicity score</t>
+  </si>
+  <si>
+    <t>immune score</t>
+  </si>
+  <si>
+    <t>microenvironment score</t>
+  </si>
+  <si>
+    <t>stroma score</t>
+  </si>
+  <si>
+    <t>T cell CD4+</t>
+  </si>
+  <si>
+    <t>T cell CD8+</t>
+  </si>
+  <si>
+    <t>T cell gamma delta</t>
+  </si>
+  <si>
+    <t>only in cibersort, still count all other subtypes as "all t cells" if they do not predict gdT</t>
+  </si>
+  <si>
+    <t>T cell NK</t>
+  </si>
+  <si>
+    <t>T cell CD4+ (non-regulatory)</t>
+  </si>
+  <si>
+    <t>T cell CD4+ Th1</t>
+  </si>
+  <si>
+    <t>T cell CD4+ Th2</t>
+  </si>
+  <si>
+    <t>T cell regulatory (Tregs)</t>
   </si>
   <si>
     <t xml:space="preserve">T cell CD4+ memory </t>
   </si>
   <si>
-    <t xml:space="preserve">T cell CD4+ naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell follicular helper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ memory activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ memory resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ central memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ effector memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ central memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ effector memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncharacterized cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method_dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method_cell_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cibersort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cells naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cells memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasma cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4 naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4 memory resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4 memory activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells follicular helper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells regulatory (Tregs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells gamma delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cells resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cells activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages M0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cells resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cells activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cells resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cells activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eosinophils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutrophils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cibersort_abs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cell.CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cell.CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adipocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell-type not related to immuno-oncology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basophils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ memory T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ naive T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ Tcm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ Tem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ naive T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ Tcm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ Tem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">another option for mDC (but already mapped to DC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chondrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class-switched memory B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endothelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epithelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erythrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibroblasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iDC</t>
+    <t>T cell CD4+ naive</t>
+  </si>
+  <si>
+    <t>T cell follicular helper</t>
+  </si>
+  <si>
+    <t>T cell CD4+ memory activated</t>
+  </si>
+  <si>
+    <t>T cell CD4+ memory resting</t>
+  </si>
+  <si>
+    <t>T cell CD8+ memory</t>
+  </si>
+  <si>
+    <t>T cell CD8+ naive</t>
+  </si>
+  <si>
+    <t>T cell CD4+ central memory</t>
+  </si>
+  <si>
+    <t>T cell CD4+ effector memory</t>
+  </si>
+  <si>
+    <t>T cell CD8+ central memory</t>
+  </si>
+  <si>
+    <t>T cell CD8+ effector memory</t>
+  </si>
+  <si>
+    <t>uncharacterized cell</t>
+  </si>
+  <si>
+    <t>method_dataset</t>
+  </si>
+  <si>
+    <t>method_cell_type</t>
+  </si>
+  <si>
+    <t>cibersort</t>
+  </si>
+  <si>
+    <t>B cells naive</t>
+  </si>
+  <si>
+    <t>B cells memory</t>
+  </si>
+  <si>
+    <t>Plasma cells</t>
+  </si>
+  <si>
+    <t>T cells CD8</t>
+  </si>
+  <si>
+    <t>T cells CD4 naive</t>
+  </si>
+  <si>
+    <t>T cells CD4 memory resting</t>
+  </si>
+  <si>
+    <t>T cells CD4 memory activated</t>
+  </si>
+  <si>
+    <t>T cells follicular helper</t>
+  </si>
+  <si>
+    <t>T cells regulatory (Tregs)</t>
+  </si>
+  <si>
+    <t>T cells gamma delta</t>
+  </si>
+  <si>
+    <t>NK cells resting</t>
+  </si>
+  <si>
+    <t>NK cells activated</t>
+  </si>
+  <si>
+    <t>Monocytes</t>
+  </si>
+  <si>
+    <t>Macrophages M0</t>
+  </si>
+  <si>
+    <t>Macrophages M1</t>
+  </si>
+  <si>
+    <t>Macrophages M2</t>
+  </si>
+  <si>
+    <t>Dendritic cells resting</t>
+  </si>
+  <si>
+    <t>Dendritic cells activated</t>
+  </si>
+  <si>
+    <t>Mast cells resting</t>
+  </si>
+  <si>
+    <t>Mast cells activated</t>
+  </si>
+  <si>
+    <t>Eosinophils</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>cibersort_abs</t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>B_cell</t>
+  </si>
+  <si>
+    <t>T_cell.CD4</t>
+  </si>
+  <si>
+    <t>T_cell.CD8</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>xcell</t>
+  </si>
+  <si>
+    <t>aDC</t>
+  </si>
+  <si>
+    <t>Adipocytes</t>
+  </si>
+  <si>
+    <t>Cell-type not related to immuno-oncology</t>
+  </si>
+  <si>
+    <t>Astrocytes</t>
+  </si>
+  <si>
+    <t>Basophils</t>
+  </si>
+  <si>
+    <t>B-cells</t>
+  </si>
+  <si>
+    <t>CD4+ memory T-cells</t>
+  </si>
+  <si>
+    <t>CD4+ naive T-cells</t>
+  </si>
+  <si>
+    <t>CD4+ T-cells</t>
+  </si>
+  <si>
+    <t>CD4+ Tcm</t>
+  </si>
+  <si>
+    <t>CD4+ Tem</t>
+  </si>
+  <si>
+    <t>CD8+ naive T-cells</t>
+  </si>
+  <si>
+    <t>CD8+ T-cells</t>
+  </si>
+  <si>
+    <t>CD8+ Tcm</t>
+  </si>
+  <si>
+    <t>CD8+ Tem</t>
+  </si>
+  <si>
+    <t>cDC</t>
+  </si>
+  <si>
+    <t>another option for mDC (but already mapped to DC)</t>
+  </si>
+  <si>
+    <t>Chondrocytes</t>
+  </si>
+  <si>
+    <t>Class-switched memory B-cells</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>Endothelial cells</t>
+  </si>
+  <si>
+    <t>Epithelial cells</t>
+  </si>
+  <si>
+    <t>Erythrocytes</t>
+  </si>
+  <si>
+    <t>Fibroblasts</t>
+  </si>
+  <si>
+    <t>GMP</t>
+  </si>
+  <si>
+    <t>Hepatocytes</t>
+  </si>
+  <si>
+    <t>HSC</t>
+  </si>
+  <si>
+    <t>iDC</t>
   </si>
   <si>
     <t xml:space="preserve">immature, monocyte-derived DC. Does not fit in the hierarchy and arguably rarely used. </t>
   </si>
   <si>
-    <t xml:space="preserve">Keratinocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ly Endothelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megakaryocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesangial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mv Endothelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naive B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osteoblast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pericytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platelets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preadipocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pro B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">does not fit in tree, not a distinct state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skeletal muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smooth muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tgd cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th1 cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th2 cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tregs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImmuneScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StromaScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicroenvironmentScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mcp_counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8 T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytotoxic lymphocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B lineage</t>
+    <t>Keratinocytes</t>
+  </si>
+  <si>
+    <t>ly Endothelial cells</t>
+  </si>
+  <si>
+    <t>Macrophages</t>
+  </si>
+  <si>
+    <t>Mast cells</t>
+  </si>
+  <si>
+    <t>Megakaryocytes</t>
+  </si>
+  <si>
+    <t>Melanocytes</t>
+  </si>
+  <si>
+    <t>Memory B-cells</t>
+  </si>
+  <si>
+    <t>MEP</t>
+  </si>
+  <si>
+    <t>Mesangial cells</t>
+  </si>
+  <si>
+    <t>MPP</t>
+  </si>
+  <si>
+    <t>MSC</t>
+  </si>
+  <si>
+    <t>mv Endothelial cells</t>
+  </si>
+  <si>
+    <t>Myocytes</t>
+  </si>
+  <si>
+    <t>naive B-cells</t>
+  </si>
+  <si>
+    <t>Neurons</t>
+  </si>
+  <si>
+    <t>NK cells</t>
+  </si>
+  <si>
+    <t>NKT</t>
+  </si>
+  <si>
+    <t>Osteoblast</t>
+  </si>
+  <si>
+    <t>pDC</t>
+  </si>
+  <si>
+    <t>Pericytes</t>
+  </si>
+  <si>
+    <t>Platelets</t>
+  </si>
+  <si>
+    <t>Preadipocytes</t>
+  </si>
+  <si>
+    <t>pro B-cells</t>
+  </si>
+  <si>
+    <t>does not fit in tree, not a distinct state</t>
+  </si>
+  <si>
+    <t>Sebocytes</t>
+  </si>
+  <si>
+    <t>Skeletal muscle</t>
+  </si>
+  <si>
+    <t>Smooth muscle</t>
+  </si>
+  <si>
+    <t>Tgd cells</t>
+  </si>
+  <si>
+    <t>Th1 cells</t>
+  </si>
+  <si>
+    <t>Th2 cells</t>
+  </si>
+  <si>
+    <t>Tregs</t>
+  </si>
+  <si>
+    <t>ImmuneScore</t>
+  </si>
+  <si>
+    <t>StromaScore</t>
+  </si>
+  <si>
+    <t>MicroenvironmentScore</t>
+  </si>
+  <si>
+    <t>mcp_counter</t>
+  </si>
+  <si>
+    <t>T cells</t>
+  </si>
+  <si>
+    <t>CD8 T cells</t>
+  </si>
+  <si>
+    <t>Cytotoxic lymphocytes</t>
+  </si>
+  <si>
+    <t>B lineage</t>
   </si>
   <si>
     <t xml:space="preserve"># use this as a "proxy" although it would also include dendritc cells. </t>
   </si>
   <si>
-    <t xml:space="preserve">Myeloid dendritic cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantiseq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages.M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages.M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK.cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T.cells.CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T.cells.CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic.cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAFs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4_Tcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8_Tcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endothelial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherCells</t>
+    <t>Myeloid dendritic cells</t>
+  </si>
+  <si>
+    <t>quantiseq</t>
+  </si>
+  <si>
+    <t>B.cells</t>
+  </si>
+  <si>
+    <t>Macrophages.M1</t>
+  </si>
+  <si>
+    <t>Macrophages.M2</t>
+  </si>
+  <si>
+    <t>NK.cells</t>
+  </si>
+  <si>
+    <t>T.cells.CD4</t>
+  </si>
+  <si>
+    <t>T.cells.CD8</t>
+  </si>
+  <si>
+    <t>Dendritic.cells</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>Bcells</t>
+  </si>
+  <si>
+    <t>CAFs</t>
+  </si>
+  <si>
+    <t>CD4_Tcells</t>
+  </si>
+  <si>
+    <t>CD8_Tcells</t>
+  </si>
+  <si>
+    <t>Endothelial</t>
+  </si>
+  <si>
+    <t>NKcells</t>
+  </si>
+  <si>
+    <t>otherCells</t>
   </si>
   <si>
     <t xml:space="preserve">available as 1-SUM(scores), no mapping required here. </t>
   </si>
   <si>
-    <t xml:space="preserve">schelker_single_cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanoma cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages/Monocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulatory T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancer associated fibroblasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural killer cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovarian carcinoma cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">racle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4 T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancer cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantiseq_reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_method1</t>
+    <t>schelker_single_cell</t>
+  </si>
+  <si>
+    <t>B cells</t>
+  </si>
+  <si>
+    <t>CD8+ T cells</t>
+  </si>
+  <si>
+    <t>Melanoma cells</t>
+  </si>
+  <si>
+    <t>CD4+ T cells</t>
+  </si>
+  <si>
+    <t>Macrophages/Monocytes</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>regulatory T cells</t>
+  </si>
+  <si>
+    <t>Cancer associated fibroblasts</t>
+  </si>
+  <si>
+    <t>Dendritic cells</t>
+  </si>
+  <si>
+    <t>Natural killer cells</t>
+  </si>
+  <si>
+    <t>Ovarian carcinoma cells</t>
+  </si>
+  <si>
+    <t>hoek</t>
+  </si>
+  <si>
+    <t>Tcell</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>mono</t>
+  </si>
+  <si>
+    <t>racle</t>
+  </si>
+  <si>
+    <t>CD4 T cells</t>
+  </si>
+  <si>
+    <t>cancer cells</t>
+  </si>
+  <si>
+    <t>quantiseq_reference</t>
+  </si>
+  <si>
+    <t>T cells CD4</t>
+  </si>
+  <si>
+    <t>test_method1</t>
   </si>
   <si>
     <t xml:space="preserve">method for unit test. </t>
   </si>
   <si>
-    <t xml:space="preserve">Macrophages.M0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ Tcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ Tcell</t>
+    <t>Macrophages.M0</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>CD4+ Tcell</t>
+  </si>
+  <si>
+    <t>CD8+ Tcell</t>
   </si>
   <si>
     <t xml:space="preserve">controlled vocabulary is a list of entities (cell types) of different granularity (e.g. T cell, CD8 T cell). We use this vocabulary to build a tree and to map cell type names between different methods/datasets. </t>
   </si>
   <si>
-    <t xml:space="preserve">mapping contains the mapping between methods/datasets</t>
+    <t>mapping contains the mapping between methods/datasets</t>
+  </si>
+  <si>
+    <t>eigengene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD1                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activated B cell              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activated CD4 T cell           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activated CD8 T cell          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central memory CD4 T cell      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central memory CD8 T cell     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effector memeory CD4 T cell    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effector memeory CD8 T cell   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gamma delta T cell             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immature  B cell              </t>
+  </si>
+  <si>
+    <t>B cell naeive?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory B cell                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatory T cell             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T follicular helper cell       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type 1 T helper cell          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type 17 T helper cell          </t>
+  </si>
+  <si>
+    <t>Add type 17?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type 2 T helper cell          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activated dendritic cell       </t>
+  </si>
+  <si>
+    <t>What it not myloid</t>
+  </si>
+  <si>
+    <t>CD56bright natural killer cell</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD56dim natural killer cell    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eosinophil                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immature dendritic cell        </t>
+  </si>
+  <si>
+    <t>Correct? What if its not myleoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrophage                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mast cell                      </t>
+  </si>
+  <si>
+    <t>activated v resting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDSC                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monocyte                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural killer cell           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural killer T cell          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutrophil                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plasmacytoid dendritic cell  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -734,7 +835,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
@@ -742,7 +843,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
@@ -750,7 +851,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -774,7 +875,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -782,70 +883,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -859,9 +929,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -875,15 +951,21 @@
         <a:noFill/>
         <a:ln w="19800">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -902,9 +984,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -918,15 +1006,21 @@
         <a:noFill/>
         <a:ln w="19800">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -935,28 +1029,320 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="4" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="27.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="9.13"/>
+    <col min="1" max="1" width="30.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" style="1" customWidth="1"/>
+    <col min="4" max="14" width="9.1640625" style="1"/>
+    <col min="15" max="15" width="27.1640625" style="1" customWidth="1"/>
+    <col min="16" max="1025" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -970,7 +1356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -982,7 +1368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -994,7 +1380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1002,7 +1388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,7 +1396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1018,18 +1404,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1037,7 +1423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1045,7 +1431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1053,7 +1439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1061,18 +1447,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1080,7 +1466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1088,7 +1474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1096,19 +1482,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1117,18 +1503,18 @@
       </c>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
+      <c r="C18"/>
+      <c r="D18"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1137,15 +1523,15 @@
       </c>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C20" s="1" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1153,7 +1539,7 @@
       </c>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -1162,7 +1548,7 @@
       </c>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1171,33 +1557,33 @@
       </c>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C23" s="1" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C24" s="1" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -1206,7 +1592,7 @@
       </c>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1215,7 +1601,7 @@
       </c>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1224,7 +1610,7 @@
       </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1233,7 +1619,7 @@
       </c>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1242,38 +1628,38 @@
       </c>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1281,14 +1667,14 @@
       </c>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1296,7 +1682,7 @@
       </c>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -1305,7 +1691,7 @@
       </c>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1314,7 +1700,7 @@
       </c>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1322,7 +1708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -1330,7 +1716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
@@ -1338,7 +1724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -1346,7 +1732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
@@ -1354,7 +1740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -1362,7 +1748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -1370,7 +1756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -1378,7 +1764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -1386,7 +1772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
@@ -1394,7 +1780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -1402,7 +1788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -1410,7 +1796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -1418,33 +1804,33 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="1" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C49" s="1" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C50" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
@@ -1452,1049 +1838,1049 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="C52" s="1">
         <v>1</v>
       </c>
-      <c r="E52" s="0"/>
-      <c r="F52" s="0"/>
-      <c r="G52" s="0"/>
-      <c r="H52" s="0"/>
-      <c r="I52" s="0"/>
-      <c r="J52" s="0"/>
-      <c r="K52" s="0"/>
-      <c r="L52" s="0"/>
-      <c r="M52" s="0"/>
-      <c r="N52" s="0"/>
-      <c r="O52" s="0"/>
-      <c r="P52" s="0"/>
-      <c r="Q52" s="0"/>
-      <c r="R52" s="0"/>
-      <c r="S52" s="0"/>
-      <c r="T52" s="0"/>
-      <c r="U52" s="0"/>
-      <c r="V52" s="0"/>
-      <c r="W52" s="0"/>
-      <c r="X52" s="0"/>
-      <c r="Y52" s="0"/>
-      <c r="Z52" s="0"/>
-      <c r="AA52" s="0"/>
-      <c r="AB52" s="0"/>
-      <c r="AC52" s="0"/>
-      <c r="AD52" s="0"/>
-      <c r="AE52" s="0"/>
-      <c r="AF52" s="0"/>
-      <c r="AG52" s="0"/>
-      <c r="AH52" s="0"/>
-      <c r="AI52" s="0"/>
-      <c r="AJ52" s="0"/>
-      <c r="AK52" s="0"/>
-      <c r="AL52" s="0"/>
-      <c r="AM52" s="0"/>
-      <c r="AN52" s="0"/>
-      <c r="AO52" s="0"/>
-      <c r="AP52" s="0"/>
-      <c r="AQ52" s="0"/>
-      <c r="AR52" s="0"/>
-      <c r="AS52" s="0"/>
-      <c r="AT52" s="0"/>
-      <c r="AU52" s="0"/>
-      <c r="AV52" s="0"/>
-      <c r="AW52" s="0"/>
-      <c r="AX52" s="0"/>
-      <c r="AY52" s="0"/>
-      <c r="AZ52" s="0"/>
-      <c r="BA52" s="0"/>
-      <c r="BB52" s="0"/>
-      <c r="BC52" s="0"/>
-      <c r="BD52" s="0"/>
-      <c r="BE52" s="0"/>
-      <c r="BF52" s="0"/>
-      <c r="BG52" s="0"/>
-      <c r="BH52" s="0"/>
-      <c r="BI52" s="0"/>
-      <c r="BJ52" s="0"/>
-      <c r="BK52" s="0"/>
-      <c r="BL52" s="0"/>
-      <c r="BM52" s="0"/>
-      <c r="BN52" s="0"/>
-      <c r="BO52" s="0"/>
-      <c r="BP52" s="0"/>
-      <c r="BQ52" s="0"/>
-      <c r="BR52" s="0"/>
-      <c r="BS52" s="0"/>
-      <c r="BT52" s="0"/>
-      <c r="BU52" s="0"/>
-      <c r="BV52" s="0"/>
-      <c r="BW52" s="0"/>
-      <c r="BX52" s="0"/>
-      <c r="BY52" s="0"/>
-      <c r="BZ52" s="0"/>
-      <c r="CA52" s="0"/>
-      <c r="CB52" s="0"/>
-      <c r="CC52" s="0"/>
-      <c r="CD52" s="0"/>
-      <c r="CE52" s="0"/>
-      <c r="CF52" s="0"/>
-      <c r="CG52" s="0"/>
-      <c r="CH52" s="0"/>
-      <c r="CI52" s="0"/>
-      <c r="CJ52" s="0"/>
-      <c r="CK52" s="0"/>
-      <c r="CL52" s="0"/>
-      <c r="CM52" s="0"/>
-      <c r="CN52" s="0"/>
-      <c r="CO52" s="0"/>
-      <c r="CP52" s="0"/>
-      <c r="CQ52" s="0"/>
-      <c r="CR52" s="0"/>
-      <c r="CS52" s="0"/>
-      <c r="CT52" s="0"/>
-      <c r="CU52" s="0"/>
-      <c r="CV52" s="0"/>
-      <c r="CW52" s="0"/>
-      <c r="CX52" s="0"/>
-      <c r="CY52" s="0"/>
-      <c r="CZ52" s="0"/>
-      <c r="DA52" s="0"/>
-      <c r="DB52" s="0"/>
-      <c r="DC52" s="0"/>
-      <c r="DD52" s="0"/>
-      <c r="DE52" s="0"/>
-      <c r="DF52" s="0"/>
-      <c r="DG52" s="0"/>
-      <c r="DH52" s="0"/>
-      <c r="DI52" s="0"/>
-      <c r="DJ52" s="0"/>
-      <c r="DK52" s="0"/>
-      <c r="DL52" s="0"/>
-      <c r="DM52" s="0"/>
-      <c r="DN52" s="0"/>
-      <c r="DO52" s="0"/>
-      <c r="DP52" s="0"/>
-      <c r="DQ52" s="0"/>
-      <c r="DR52" s="0"/>
-      <c r="DS52" s="0"/>
-      <c r="DT52" s="0"/>
-      <c r="DU52" s="0"/>
-      <c r="DV52" s="0"/>
-      <c r="DW52" s="0"/>
-      <c r="DX52" s="0"/>
-      <c r="DY52" s="0"/>
-      <c r="DZ52" s="0"/>
-      <c r="EA52" s="0"/>
-      <c r="EB52" s="0"/>
-      <c r="EC52" s="0"/>
-      <c r="ED52" s="0"/>
-      <c r="EE52" s="0"/>
-      <c r="EF52" s="0"/>
-      <c r="EG52" s="0"/>
-      <c r="EH52" s="0"/>
-      <c r="EI52" s="0"/>
-      <c r="EJ52" s="0"/>
-      <c r="EK52" s="0"/>
-      <c r="EL52" s="0"/>
-      <c r="EM52" s="0"/>
-      <c r="EN52" s="0"/>
-      <c r="EO52" s="0"/>
-      <c r="EP52" s="0"/>
-      <c r="EQ52" s="0"/>
-      <c r="ER52" s="0"/>
-      <c r="ES52" s="0"/>
-      <c r="ET52" s="0"/>
-      <c r="EU52" s="0"/>
-      <c r="EV52" s="0"/>
-      <c r="EW52" s="0"/>
-      <c r="EX52" s="0"/>
-      <c r="EY52" s="0"/>
-      <c r="EZ52" s="0"/>
-      <c r="FA52" s="0"/>
-      <c r="FB52" s="0"/>
-      <c r="FC52" s="0"/>
-      <c r="FD52" s="0"/>
-      <c r="FE52" s="0"/>
-      <c r="FF52" s="0"/>
-      <c r="FG52" s="0"/>
-      <c r="FH52" s="0"/>
-      <c r="FI52" s="0"/>
-      <c r="FJ52" s="0"/>
-      <c r="FK52" s="0"/>
-      <c r="FL52" s="0"/>
-      <c r="FM52" s="0"/>
-      <c r="FN52" s="0"/>
-      <c r="FO52" s="0"/>
-      <c r="FP52" s="0"/>
-      <c r="FQ52" s="0"/>
-      <c r="FR52" s="0"/>
-      <c r="FS52" s="0"/>
-      <c r="FT52" s="0"/>
-      <c r="FU52" s="0"/>
-      <c r="FV52" s="0"/>
-      <c r="FW52" s="0"/>
-      <c r="FX52" s="0"/>
-      <c r="FY52" s="0"/>
-      <c r="FZ52" s="0"/>
-      <c r="GA52" s="0"/>
-      <c r="GB52" s="0"/>
-      <c r="GC52" s="0"/>
-      <c r="GD52" s="0"/>
-      <c r="GE52" s="0"/>
-      <c r="GF52" s="0"/>
-      <c r="GG52" s="0"/>
-      <c r="GH52" s="0"/>
-      <c r="GI52" s="0"/>
-      <c r="GJ52" s="0"/>
-      <c r="GK52" s="0"/>
-      <c r="GL52" s="0"/>
-      <c r="GM52" s="0"/>
-      <c r="GN52" s="0"/>
-      <c r="GO52" s="0"/>
-      <c r="GP52" s="0"/>
-      <c r="GQ52" s="0"/>
-      <c r="GR52" s="0"/>
-      <c r="GS52" s="0"/>
-      <c r="GT52" s="0"/>
-      <c r="GU52" s="0"/>
-      <c r="GV52" s="0"/>
-      <c r="GW52" s="0"/>
-      <c r="GX52" s="0"/>
-      <c r="GY52" s="0"/>
-      <c r="GZ52" s="0"/>
-      <c r="HA52" s="0"/>
-      <c r="HB52" s="0"/>
-      <c r="HC52" s="0"/>
-      <c r="HD52" s="0"/>
-      <c r="HE52" s="0"/>
-      <c r="HF52" s="0"/>
-      <c r="HG52" s="0"/>
-      <c r="HH52" s="0"/>
-      <c r="HI52" s="0"/>
-      <c r="HJ52" s="0"/>
-      <c r="HK52" s="0"/>
-      <c r="HL52" s="0"/>
-      <c r="HM52" s="0"/>
-      <c r="HN52" s="0"/>
-      <c r="HO52" s="0"/>
-      <c r="HP52" s="0"/>
-      <c r="HQ52" s="0"/>
-      <c r="HR52" s="0"/>
-      <c r="HS52" s="0"/>
-      <c r="HT52" s="0"/>
-      <c r="HU52" s="0"/>
-      <c r="HV52" s="0"/>
-      <c r="HW52" s="0"/>
-      <c r="HX52" s="0"/>
-      <c r="HY52" s="0"/>
-      <c r="HZ52" s="0"/>
-      <c r="IA52" s="0"/>
-      <c r="IB52" s="0"/>
-      <c r="IC52" s="0"/>
-      <c r="ID52" s="0"/>
-      <c r="IE52" s="0"/>
-      <c r="IF52" s="0"/>
-      <c r="IG52" s="0"/>
-      <c r="IH52" s="0"/>
-      <c r="II52" s="0"/>
-      <c r="IJ52" s="0"/>
-      <c r="IK52" s="0"/>
-      <c r="IL52" s="0"/>
-      <c r="IM52" s="0"/>
-      <c r="IN52" s="0"/>
-      <c r="IO52" s="0"/>
-      <c r="IP52" s="0"/>
-      <c r="IQ52" s="0"/>
-      <c r="IR52" s="0"/>
-      <c r="IS52" s="0"/>
-      <c r="IT52" s="0"/>
-      <c r="IU52" s="0"/>
-      <c r="IV52" s="0"/>
-      <c r="IW52" s="0"/>
-      <c r="IX52" s="0"/>
-      <c r="IY52" s="0"/>
-      <c r="IZ52" s="0"/>
-      <c r="JA52" s="0"/>
-      <c r="JB52" s="0"/>
-      <c r="JC52" s="0"/>
-      <c r="JD52" s="0"/>
-      <c r="JE52" s="0"/>
-      <c r="JF52" s="0"/>
-      <c r="JG52" s="0"/>
-      <c r="JH52" s="0"/>
-      <c r="JI52" s="0"/>
-      <c r="JJ52" s="0"/>
-      <c r="JK52" s="0"/>
-      <c r="JL52" s="0"/>
-      <c r="JM52" s="0"/>
-      <c r="JN52" s="0"/>
-      <c r="JO52" s="0"/>
-      <c r="JP52" s="0"/>
-      <c r="JQ52" s="0"/>
-      <c r="JR52" s="0"/>
-      <c r="JS52" s="0"/>
-      <c r="JT52" s="0"/>
-      <c r="JU52" s="0"/>
-      <c r="JV52" s="0"/>
-      <c r="JW52" s="0"/>
-      <c r="JX52" s="0"/>
-      <c r="JY52" s="0"/>
-      <c r="JZ52" s="0"/>
-      <c r="KA52" s="0"/>
-      <c r="KB52" s="0"/>
-      <c r="KC52" s="0"/>
-      <c r="KD52" s="0"/>
-      <c r="KE52" s="0"/>
-      <c r="KF52" s="0"/>
-      <c r="KG52" s="0"/>
-      <c r="KH52" s="0"/>
-      <c r="KI52" s="0"/>
-      <c r="KJ52" s="0"/>
-      <c r="KK52" s="0"/>
-      <c r="KL52" s="0"/>
-      <c r="KM52" s="0"/>
-      <c r="KN52" s="0"/>
-      <c r="KO52" s="0"/>
-      <c r="KP52" s="0"/>
-      <c r="KQ52" s="0"/>
-      <c r="KR52" s="0"/>
-      <c r="KS52" s="0"/>
-      <c r="KT52" s="0"/>
-      <c r="KU52" s="0"/>
-      <c r="KV52" s="0"/>
-      <c r="KW52" s="0"/>
-      <c r="KX52" s="0"/>
-      <c r="KY52" s="0"/>
-      <c r="KZ52" s="0"/>
-      <c r="LA52" s="0"/>
-      <c r="LB52" s="0"/>
-      <c r="LC52" s="0"/>
-      <c r="LD52" s="0"/>
-      <c r="LE52" s="0"/>
-      <c r="LF52" s="0"/>
-      <c r="LG52" s="0"/>
-      <c r="LH52" s="0"/>
-      <c r="LI52" s="0"/>
-      <c r="LJ52" s="0"/>
-      <c r="LK52" s="0"/>
-      <c r="LL52" s="0"/>
-      <c r="LM52" s="0"/>
-      <c r="LN52" s="0"/>
-      <c r="LO52" s="0"/>
-      <c r="LP52" s="0"/>
-      <c r="LQ52" s="0"/>
-      <c r="LR52" s="0"/>
-      <c r="LS52" s="0"/>
-      <c r="LT52" s="0"/>
-      <c r="LU52" s="0"/>
-      <c r="LV52" s="0"/>
-      <c r="LW52" s="0"/>
-      <c r="LX52" s="0"/>
-      <c r="LY52" s="0"/>
-      <c r="LZ52" s="0"/>
-      <c r="MA52" s="0"/>
-      <c r="MB52" s="0"/>
-      <c r="MC52" s="0"/>
-      <c r="MD52" s="0"/>
-      <c r="ME52" s="0"/>
-      <c r="MF52" s="0"/>
-      <c r="MG52" s="0"/>
-      <c r="MH52" s="0"/>
-      <c r="MI52" s="0"/>
-      <c r="MJ52" s="0"/>
-      <c r="MK52" s="0"/>
-      <c r="ML52" s="0"/>
-      <c r="MM52" s="0"/>
-      <c r="MN52" s="0"/>
-      <c r="MO52" s="0"/>
-      <c r="MP52" s="0"/>
-      <c r="MQ52" s="0"/>
-      <c r="MR52" s="0"/>
-      <c r="MS52" s="0"/>
-      <c r="MT52" s="0"/>
-      <c r="MU52" s="0"/>
-      <c r="MV52" s="0"/>
-      <c r="MW52" s="0"/>
-      <c r="MX52" s="0"/>
-      <c r="MY52" s="0"/>
-      <c r="MZ52" s="0"/>
-      <c r="NA52" s="0"/>
-      <c r="NB52" s="0"/>
-      <c r="NC52" s="0"/>
-      <c r="ND52" s="0"/>
-      <c r="NE52" s="0"/>
-      <c r="NF52" s="0"/>
-      <c r="NG52" s="0"/>
-      <c r="NH52" s="0"/>
-      <c r="NI52" s="0"/>
-      <c r="NJ52" s="0"/>
-      <c r="NK52" s="0"/>
-      <c r="NL52" s="0"/>
-      <c r="NM52" s="0"/>
-      <c r="NN52" s="0"/>
-      <c r="NO52" s="0"/>
-      <c r="NP52" s="0"/>
-      <c r="NQ52" s="0"/>
-      <c r="NR52" s="0"/>
-      <c r="NS52" s="0"/>
-      <c r="NT52" s="0"/>
-      <c r="NU52" s="0"/>
-      <c r="NV52" s="0"/>
-      <c r="NW52" s="0"/>
-      <c r="NX52" s="0"/>
-      <c r="NY52" s="0"/>
-      <c r="NZ52" s="0"/>
-      <c r="OA52" s="0"/>
-      <c r="OB52" s="0"/>
-      <c r="OC52" s="0"/>
-      <c r="OD52" s="0"/>
-      <c r="OE52" s="0"/>
-      <c r="OF52" s="0"/>
-      <c r="OG52" s="0"/>
-      <c r="OH52" s="0"/>
-      <c r="OI52" s="0"/>
-      <c r="OJ52" s="0"/>
-      <c r="OK52" s="0"/>
-      <c r="OL52" s="0"/>
-      <c r="OM52" s="0"/>
-      <c r="ON52" s="0"/>
-      <c r="OO52" s="0"/>
-      <c r="OP52" s="0"/>
-      <c r="OQ52" s="0"/>
-      <c r="OR52" s="0"/>
-      <c r="OS52" s="0"/>
-      <c r="OT52" s="0"/>
-      <c r="OU52" s="0"/>
-      <c r="OV52" s="0"/>
-      <c r="OW52" s="0"/>
-      <c r="OX52" s="0"/>
-      <c r="OY52" s="0"/>
-      <c r="OZ52" s="0"/>
-      <c r="PA52" s="0"/>
-      <c r="PB52" s="0"/>
-      <c r="PC52" s="0"/>
-      <c r="PD52" s="0"/>
-      <c r="PE52" s="0"/>
-      <c r="PF52" s="0"/>
-      <c r="PG52" s="0"/>
-      <c r="PH52" s="0"/>
-      <c r="PI52" s="0"/>
-      <c r="PJ52" s="0"/>
-      <c r="PK52" s="0"/>
-      <c r="PL52" s="0"/>
-      <c r="PM52" s="0"/>
-      <c r="PN52" s="0"/>
-      <c r="PO52" s="0"/>
-      <c r="PP52" s="0"/>
-      <c r="PQ52" s="0"/>
-      <c r="PR52" s="0"/>
-      <c r="PS52" s="0"/>
-      <c r="PT52" s="0"/>
-      <c r="PU52" s="0"/>
-      <c r="PV52" s="0"/>
-      <c r="PW52" s="0"/>
-      <c r="PX52" s="0"/>
-      <c r="PY52" s="0"/>
-      <c r="PZ52" s="0"/>
-      <c r="QA52" s="0"/>
-      <c r="QB52" s="0"/>
-      <c r="QC52" s="0"/>
-      <c r="QD52" s="0"/>
-      <c r="QE52" s="0"/>
-      <c r="QF52" s="0"/>
-      <c r="QG52" s="0"/>
-      <c r="QH52" s="0"/>
-      <c r="QI52" s="0"/>
-      <c r="QJ52" s="0"/>
-      <c r="QK52" s="0"/>
-      <c r="QL52" s="0"/>
-      <c r="QM52" s="0"/>
-      <c r="QN52" s="0"/>
-      <c r="QO52" s="0"/>
-      <c r="QP52" s="0"/>
-      <c r="QQ52" s="0"/>
-      <c r="QR52" s="0"/>
-      <c r="QS52" s="0"/>
-      <c r="QT52" s="0"/>
-      <c r="QU52" s="0"/>
-      <c r="QV52" s="0"/>
-      <c r="QW52" s="0"/>
-      <c r="QX52" s="0"/>
-      <c r="QY52" s="0"/>
-      <c r="QZ52" s="0"/>
-      <c r="RA52" s="0"/>
-      <c r="RB52" s="0"/>
-      <c r="RC52" s="0"/>
-      <c r="RD52" s="0"/>
-      <c r="RE52" s="0"/>
-      <c r="RF52" s="0"/>
-      <c r="RG52" s="0"/>
-      <c r="RH52" s="0"/>
-      <c r="RI52" s="0"/>
-      <c r="RJ52" s="0"/>
-      <c r="RK52" s="0"/>
-      <c r="RL52" s="0"/>
-      <c r="RM52" s="0"/>
-      <c r="RN52" s="0"/>
-      <c r="RO52" s="0"/>
-      <c r="RP52" s="0"/>
-      <c r="RQ52" s="0"/>
-      <c r="RR52" s="0"/>
-      <c r="RS52" s="0"/>
-      <c r="RT52" s="0"/>
-      <c r="RU52" s="0"/>
-      <c r="RV52" s="0"/>
-      <c r="RW52" s="0"/>
-      <c r="RX52" s="0"/>
-      <c r="RY52" s="0"/>
-      <c r="RZ52" s="0"/>
-      <c r="SA52" s="0"/>
-      <c r="SB52" s="0"/>
-      <c r="SC52" s="0"/>
-      <c r="SD52" s="0"/>
-      <c r="SE52" s="0"/>
-      <c r="SF52" s="0"/>
-      <c r="SG52" s="0"/>
-      <c r="SH52" s="0"/>
-      <c r="SI52" s="0"/>
-      <c r="SJ52" s="0"/>
-      <c r="SK52" s="0"/>
-      <c r="SL52" s="0"/>
-      <c r="SM52" s="0"/>
-      <c r="SN52" s="0"/>
-      <c r="SO52" s="0"/>
-      <c r="SP52" s="0"/>
-      <c r="SQ52" s="0"/>
-      <c r="SR52" s="0"/>
-      <c r="SS52" s="0"/>
-      <c r="ST52" s="0"/>
-      <c r="SU52" s="0"/>
-      <c r="SV52" s="0"/>
-      <c r="SW52" s="0"/>
-      <c r="SX52" s="0"/>
-      <c r="SY52" s="0"/>
-      <c r="SZ52" s="0"/>
-      <c r="TA52" s="0"/>
-      <c r="TB52" s="0"/>
-      <c r="TC52" s="0"/>
-      <c r="TD52" s="0"/>
-      <c r="TE52" s="0"/>
-      <c r="TF52" s="0"/>
-      <c r="TG52" s="0"/>
-      <c r="TH52" s="0"/>
-      <c r="TI52" s="0"/>
-      <c r="TJ52" s="0"/>
-      <c r="TK52" s="0"/>
-      <c r="TL52" s="0"/>
-      <c r="TM52" s="0"/>
-      <c r="TN52" s="0"/>
-      <c r="TO52" s="0"/>
-      <c r="TP52" s="0"/>
-      <c r="TQ52" s="0"/>
-      <c r="TR52" s="0"/>
-      <c r="TS52" s="0"/>
-      <c r="TT52" s="0"/>
-      <c r="TU52" s="0"/>
-      <c r="TV52" s="0"/>
-      <c r="TW52" s="0"/>
-      <c r="TX52" s="0"/>
-      <c r="TY52" s="0"/>
-      <c r="TZ52" s="0"/>
-      <c r="UA52" s="0"/>
-      <c r="UB52" s="0"/>
-      <c r="UC52" s="0"/>
-      <c r="UD52" s="0"/>
-      <c r="UE52" s="0"/>
-      <c r="UF52" s="0"/>
-      <c r="UG52" s="0"/>
-      <c r="UH52" s="0"/>
-      <c r="UI52" s="0"/>
-      <c r="UJ52" s="0"/>
-      <c r="UK52" s="0"/>
-      <c r="UL52" s="0"/>
-      <c r="UM52" s="0"/>
-      <c r="UN52" s="0"/>
-      <c r="UO52" s="0"/>
-      <c r="UP52" s="0"/>
-      <c r="UQ52" s="0"/>
-      <c r="UR52" s="0"/>
-      <c r="US52" s="0"/>
-      <c r="UT52" s="0"/>
-      <c r="UU52" s="0"/>
-      <c r="UV52" s="0"/>
-      <c r="UW52" s="0"/>
-      <c r="UX52" s="0"/>
-      <c r="UY52" s="0"/>
-      <c r="UZ52" s="0"/>
-      <c r="VA52" s="0"/>
-      <c r="VB52" s="0"/>
-      <c r="VC52" s="0"/>
-      <c r="VD52" s="0"/>
-      <c r="VE52" s="0"/>
-      <c r="VF52" s="0"/>
-      <c r="VG52" s="0"/>
-      <c r="VH52" s="0"/>
-      <c r="VI52" s="0"/>
-      <c r="VJ52" s="0"/>
-      <c r="VK52" s="0"/>
-      <c r="VL52" s="0"/>
-      <c r="VM52" s="0"/>
-      <c r="VN52" s="0"/>
-      <c r="VO52" s="0"/>
-      <c r="VP52" s="0"/>
-      <c r="VQ52" s="0"/>
-      <c r="VR52" s="0"/>
-      <c r="VS52" s="0"/>
-      <c r="VT52" s="0"/>
-      <c r="VU52" s="0"/>
-      <c r="VV52" s="0"/>
-      <c r="VW52" s="0"/>
-      <c r="VX52" s="0"/>
-      <c r="VY52" s="0"/>
-      <c r="VZ52" s="0"/>
-      <c r="WA52" s="0"/>
-      <c r="WB52" s="0"/>
-      <c r="WC52" s="0"/>
-      <c r="WD52" s="0"/>
-      <c r="WE52" s="0"/>
-      <c r="WF52" s="0"/>
-      <c r="WG52" s="0"/>
-      <c r="WH52" s="0"/>
-      <c r="WI52" s="0"/>
-      <c r="WJ52" s="0"/>
-      <c r="WK52" s="0"/>
-      <c r="WL52" s="0"/>
-      <c r="WM52" s="0"/>
-      <c r="WN52" s="0"/>
-      <c r="WO52" s="0"/>
-      <c r="WP52" s="0"/>
-      <c r="WQ52" s="0"/>
-      <c r="WR52" s="0"/>
-      <c r="WS52" s="0"/>
-      <c r="WT52" s="0"/>
-      <c r="WU52" s="0"/>
-      <c r="WV52" s="0"/>
-      <c r="WW52" s="0"/>
-      <c r="WX52" s="0"/>
-      <c r="WY52" s="0"/>
-      <c r="WZ52" s="0"/>
-      <c r="XA52" s="0"/>
-      <c r="XB52" s="0"/>
-      <c r="XC52" s="0"/>
-      <c r="XD52" s="0"/>
-      <c r="XE52" s="0"/>
-      <c r="XF52" s="0"/>
-      <c r="XG52" s="0"/>
-      <c r="XH52" s="0"/>
-      <c r="XI52" s="0"/>
-      <c r="XJ52" s="0"/>
-      <c r="XK52" s="0"/>
-      <c r="XL52" s="0"/>
-      <c r="XM52" s="0"/>
-      <c r="XN52" s="0"/>
-      <c r="XO52" s="0"/>
-      <c r="XP52" s="0"/>
-      <c r="XQ52" s="0"/>
-      <c r="XR52" s="0"/>
-      <c r="XS52" s="0"/>
-      <c r="XT52" s="0"/>
-      <c r="XU52" s="0"/>
-      <c r="XV52" s="0"/>
-      <c r="XW52" s="0"/>
-      <c r="XX52" s="0"/>
-      <c r="XY52" s="0"/>
-      <c r="XZ52" s="0"/>
-      <c r="YA52" s="0"/>
-      <c r="YB52" s="0"/>
-      <c r="YC52" s="0"/>
-      <c r="YD52" s="0"/>
-      <c r="YE52" s="0"/>
-      <c r="YF52" s="0"/>
-      <c r="YG52" s="0"/>
-      <c r="YH52" s="0"/>
-      <c r="YI52" s="0"/>
-      <c r="YJ52" s="0"/>
-      <c r="YK52" s="0"/>
-      <c r="YL52" s="0"/>
-      <c r="YM52" s="0"/>
-      <c r="YN52" s="0"/>
-      <c r="YO52" s="0"/>
-      <c r="YP52" s="0"/>
-      <c r="YQ52" s="0"/>
-      <c r="YR52" s="0"/>
-      <c r="YS52" s="0"/>
-      <c r="YT52" s="0"/>
-      <c r="YU52" s="0"/>
-      <c r="YV52" s="0"/>
-      <c r="YW52" s="0"/>
-      <c r="YX52" s="0"/>
-      <c r="YY52" s="0"/>
-      <c r="YZ52" s="0"/>
-      <c r="ZA52" s="0"/>
-      <c r="ZB52" s="0"/>
-      <c r="ZC52" s="0"/>
-      <c r="ZD52" s="0"/>
-      <c r="ZE52" s="0"/>
-      <c r="ZF52" s="0"/>
-      <c r="ZG52" s="0"/>
-      <c r="ZH52" s="0"/>
-      <c r="ZI52" s="0"/>
-      <c r="ZJ52" s="0"/>
-      <c r="ZK52" s="0"/>
-      <c r="ZL52" s="0"/>
-      <c r="ZM52" s="0"/>
-      <c r="ZN52" s="0"/>
-      <c r="ZO52" s="0"/>
-      <c r="ZP52" s="0"/>
-      <c r="ZQ52" s="0"/>
-      <c r="ZR52" s="0"/>
-      <c r="ZS52" s="0"/>
-      <c r="ZT52" s="0"/>
-      <c r="ZU52" s="0"/>
-      <c r="ZV52" s="0"/>
-      <c r="ZW52" s="0"/>
-      <c r="ZX52" s="0"/>
-      <c r="ZY52" s="0"/>
-      <c r="ZZ52" s="0"/>
-      <c r="AAA52" s="0"/>
-      <c r="AAB52" s="0"/>
-      <c r="AAC52" s="0"/>
-      <c r="AAD52" s="0"/>
-      <c r="AAE52" s="0"/>
-      <c r="AAF52" s="0"/>
-      <c r="AAG52" s="0"/>
-      <c r="AAH52" s="0"/>
-      <c r="AAI52" s="0"/>
-      <c r="AAJ52" s="0"/>
-      <c r="AAK52" s="0"/>
-      <c r="AAL52" s="0"/>
-      <c r="AAM52" s="0"/>
-      <c r="AAN52" s="0"/>
-      <c r="AAO52" s="0"/>
-      <c r="AAP52" s="0"/>
-      <c r="AAQ52" s="0"/>
-      <c r="AAR52" s="0"/>
-      <c r="AAS52" s="0"/>
-      <c r="AAT52" s="0"/>
-      <c r="AAU52" s="0"/>
-      <c r="AAV52" s="0"/>
-      <c r="AAW52" s="0"/>
-      <c r="AAX52" s="0"/>
-      <c r="AAY52" s="0"/>
-      <c r="AAZ52" s="0"/>
-      <c r="ABA52" s="0"/>
-      <c r="ABB52" s="0"/>
-      <c r="ABC52" s="0"/>
-      <c r="ABD52" s="0"/>
-      <c r="ABE52" s="0"/>
-      <c r="ABF52" s="0"/>
-      <c r="ABG52" s="0"/>
-      <c r="ABH52" s="0"/>
-      <c r="ABI52" s="0"/>
-      <c r="ABJ52" s="0"/>
-      <c r="ABK52" s="0"/>
-      <c r="ABL52" s="0"/>
-      <c r="ABM52" s="0"/>
-      <c r="ABN52" s="0"/>
-      <c r="ABO52" s="0"/>
-      <c r="ABP52" s="0"/>
-      <c r="ABQ52" s="0"/>
-      <c r="ABR52" s="0"/>
-      <c r="ABS52" s="0"/>
-      <c r="ABT52" s="0"/>
-      <c r="ABU52" s="0"/>
-      <c r="ABV52" s="0"/>
-      <c r="ABW52" s="0"/>
-      <c r="ABX52" s="0"/>
-      <c r="ABY52" s="0"/>
-      <c r="ABZ52" s="0"/>
-      <c r="ACA52" s="0"/>
-      <c r="ACB52" s="0"/>
-      <c r="ACC52" s="0"/>
-      <c r="ACD52" s="0"/>
-      <c r="ACE52" s="0"/>
-      <c r="ACF52" s="0"/>
-      <c r="ACG52" s="0"/>
-      <c r="ACH52" s="0"/>
-      <c r="ACI52" s="0"/>
-      <c r="ACJ52" s="0"/>
-      <c r="ACK52" s="0"/>
-      <c r="ACL52" s="0"/>
-      <c r="ACM52" s="0"/>
-      <c r="ACN52" s="0"/>
-      <c r="ACO52" s="0"/>
-      <c r="ACP52" s="0"/>
-      <c r="ACQ52" s="0"/>
-      <c r="ACR52" s="0"/>
-      <c r="ACS52" s="0"/>
-      <c r="ACT52" s="0"/>
-      <c r="ACU52" s="0"/>
-      <c r="ACV52" s="0"/>
-      <c r="ACW52" s="0"/>
-      <c r="ACX52" s="0"/>
-      <c r="ACY52" s="0"/>
-      <c r="ACZ52" s="0"/>
-      <c r="ADA52" s="0"/>
-      <c r="ADB52" s="0"/>
-      <c r="ADC52" s="0"/>
-      <c r="ADD52" s="0"/>
-      <c r="ADE52" s="0"/>
-      <c r="ADF52" s="0"/>
-      <c r="ADG52" s="0"/>
-      <c r="ADH52" s="0"/>
-      <c r="ADI52" s="0"/>
-      <c r="ADJ52" s="0"/>
-      <c r="ADK52" s="0"/>
-      <c r="ADL52" s="0"/>
-      <c r="ADM52" s="0"/>
-      <c r="ADN52" s="0"/>
-      <c r="ADO52" s="0"/>
-      <c r="ADP52" s="0"/>
-      <c r="ADQ52" s="0"/>
-      <c r="ADR52" s="0"/>
-      <c r="ADS52" s="0"/>
-      <c r="ADT52" s="0"/>
-      <c r="ADU52" s="0"/>
-      <c r="ADV52" s="0"/>
-      <c r="ADW52" s="0"/>
-      <c r="ADX52" s="0"/>
-      <c r="ADY52" s="0"/>
-      <c r="ADZ52" s="0"/>
-      <c r="AEA52" s="0"/>
-      <c r="AEB52" s="0"/>
-      <c r="AEC52" s="0"/>
-      <c r="AED52" s="0"/>
-      <c r="AEE52" s="0"/>
-      <c r="AEF52" s="0"/>
-      <c r="AEG52" s="0"/>
-      <c r="AEH52" s="0"/>
-      <c r="AEI52" s="0"/>
-      <c r="AEJ52" s="0"/>
-      <c r="AEK52" s="0"/>
-      <c r="AEL52" s="0"/>
-      <c r="AEM52" s="0"/>
-      <c r="AEN52" s="0"/>
-      <c r="AEO52" s="0"/>
-      <c r="AEP52" s="0"/>
-      <c r="AEQ52" s="0"/>
-      <c r="AER52" s="0"/>
-      <c r="AES52" s="0"/>
-      <c r="AET52" s="0"/>
-      <c r="AEU52" s="0"/>
-      <c r="AEV52" s="0"/>
-      <c r="AEW52" s="0"/>
-      <c r="AEX52" s="0"/>
-      <c r="AEY52" s="0"/>
-      <c r="AEZ52" s="0"/>
-      <c r="AFA52" s="0"/>
-      <c r="AFB52" s="0"/>
-      <c r="AFC52" s="0"/>
-      <c r="AFD52" s="0"/>
-      <c r="AFE52" s="0"/>
-      <c r="AFF52" s="0"/>
-      <c r="AFG52" s="0"/>
-      <c r="AFH52" s="0"/>
-      <c r="AFI52" s="0"/>
-      <c r="AFJ52" s="0"/>
-      <c r="AFK52" s="0"/>
-      <c r="AFL52" s="0"/>
-      <c r="AFM52" s="0"/>
-      <c r="AFN52" s="0"/>
-      <c r="AFO52" s="0"/>
-      <c r="AFP52" s="0"/>
-      <c r="AFQ52" s="0"/>
-      <c r="AFR52" s="0"/>
-      <c r="AFS52" s="0"/>
-      <c r="AFT52" s="0"/>
-      <c r="AFU52" s="0"/>
-      <c r="AFV52" s="0"/>
-      <c r="AFW52" s="0"/>
-      <c r="AFX52" s="0"/>
-      <c r="AFY52" s="0"/>
-      <c r="AFZ52" s="0"/>
-      <c r="AGA52" s="0"/>
-      <c r="AGB52" s="0"/>
-      <c r="AGC52" s="0"/>
-      <c r="AGD52" s="0"/>
-      <c r="AGE52" s="0"/>
-      <c r="AGF52" s="0"/>
-      <c r="AGG52" s="0"/>
-      <c r="AGH52" s="0"/>
-      <c r="AGI52" s="0"/>
-      <c r="AGJ52" s="0"/>
-      <c r="AGK52" s="0"/>
-      <c r="AGL52" s="0"/>
-      <c r="AGM52" s="0"/>
-      <c r="AGN52" s="0"/>
-      <c r="AGO52" s="0"/>
-      <c r="AGP52" s="0"/>
-      <c r="AGQ52" s="0"/>
-      <c r="AGR52" s="0"/>
-      <c r="AGS52" s="0"/>
-      <c r="AGT52" s="0"/>
-      <c r="AGU52" s="0"/>
-      <c r="AGV52" s="0"/>
-      <c r="AGW52" s="0"/>
-      <c r="AGX52" s="0"/>
-      <c r="AGY52" s="0"/>
-      <c r="AGZ52" s="0"/>
-      <c r="AHA52" s="0"/>
-      <c r="AHB52" s="0"/>
-      <c r="AHC52" s="0"/>
-      <c r="AHD52" s="0"/>
-      <c r="AHE52" s="0"/>
-      <c r="AHF52" s="0"/>
-      <c r="AHG52" s="0"/>
-      <c r="AHH52" s="0"/>
-      <c r="AHI52" s="0"/>
-      <c r="AHJ52" s="0"/>
-      <c r="AHK52" s="0"/>
-      <c r="AHL52" s="0"/>
-      <c r="AHM52" s="0"/>
-      <c r="AHN52" s="0"/>
-      <c r="AHO52" s="0"/>
-      <c r="AHP52" s="0"/>
-      <c r="AHQ52" s="0"/>
-      <c r="AHR52" s="0"/>
-      <c r="AHS52" s="0"/>
-      <c r="AHT52" s="0"/>
-      <c r="AHU52" s="0"/>
-      <c r="AHV52" s="0"/>
-      <c r="AHW52" s="0"/>
-      <c r="AHX52" s="0"/>
-      <c r="AHY52" s="0"/>
-      <c r="AHZ52" s="0"/>
-      <c r="AIA52" s="0"/>
-      <c r="AIB52" s="0"/>
-      <c r="AIC52" s="0"/>
-      <c r="AID52" s="0"/>
-      <c r="AIE52" s="0"/>
-      <c r="AIF52" s="0"/>
-      <c r="AIG52" s="0"/>
-      <c r="AIH52" s="0"/>
-      <c r="AII52" s="0"/>
-      <c r="AIJ52" s="0"/>
-      <c r="AIK52" s="0"/>
-      <c r="AIL52" s="0"/>
-      <c r="AIM52" s="0"/>
-      <c r="AIN52" s="0"/>
-      <c r="AIO52" s="0"/>
-      <c r="AIP52" s="0"/>
-      <c r="AIQ52" s="0"/>
-      <c r="AIR52" s="0"/>
-      <c r="AIS52" s="0"/>
-      <c r="AIT52" s="0"/>
-      <c r="AIU52" s="0"/>
-      <c r="AIV52" s="0"/>
-      <c r="AIW52" s="0"/>
-      <c r="AIX52" s="0"/>
-      <c r="AIY52" s="0"/>
-      <c r="AIZ52" s="0"/>
-      <c r="AJA52" s="0"/>
-      <c r="AJB52" s="0"/>
-      <c r="AJC52" s="0"/>
-      <c r="AJD52" s="0"/>
-      <c r="AJE52" s="0"/>
-      <c r="AJF52" s="0"/>
-      <c r="AJG52" s="0"/>
-      <c r="AJH52" s="0"/>
-      <c r="AJI52" s="0"/>
-      <c r="AJJ52" s="0"/>
-      <c r="AJK52" s="0"/>
-      <c r="AJL52" s="0"/>
-      <c r="AJM52" s="0"/>
-      <c r="AJN52" s="0"/>
-      <c r="AJO52" s="0"/>
-      <c r="AJP52" s="0"/>
-      <c r="AJQ52" s="0"/>
-      <c r="AJR52" s="0"/>
-      <c r="AJS52" s="0"/>
-      <c r="AJT52" s="0"/>
-      <c r="AJU52" s="0"/>
-      <c r="AJV52" s="0"/>
-      <c r="AJW52" s="0"/>
-      <c r="AJX52" s="0"/>
-      <c r="AJY52" s="0"/>
-      <c r="AJZ52" s="0"/>
-      <c r="AKA52" s="0"/>
-      <c r="AKB52" s="0"/>
-      <c r="AKC52" s="0"/>
-      <c r="AKD52" s="0"/>
-      <c r="AKE52" s="0"/>
-      <c r="AKF52" s="0"/>
-      <c r="AKG52" s="0"/>
-      <c r="AKH52" s="0"/>
-      <c r="AKI52" s="0"/>
-      <c r="AKJ52" s="0"/>
-      <c r="AKK52" s="0"/>
-      <c r="AKL52" s="0"/>
-      <c r="AKM52" s="0"/>
-      <c r="AKN52" s="0"/>
-      <c r="AKO52" s="0"/>
-      <c r="AKP52" s="0"/>
-      <c r="AKQ52" s="0"/>
-      <c r="AKR52" s="0"/>
-      <c r="AKS52" s="0"/>
-      <c r="AKT52" s="0"/>
-      <c r="AKU52" s="0"/>
-      <c r="AKV52" s="0"/>
-      <c r="AKW52" s="0"/>
-      <c r="AKX52" s="0"/>
-      <c r="AKY52" s="0"/>
-      <c r="AKZ52" s="0"/>
-      <c r="ALA52" s="0"/>
-      <c r="ALB52" s="0"/>
-      <c r="ALC52" s="0"/>
-      <c r="ALD52" s="0"/>
-      <c r="ALE52" s="0"/>
-      <c r="ALF52" s="0"/>
-      <c r="ALG52" s="0"/>
-      <c r="ALH52" s="0"/>
-      <c r="ALI52" s="0"/>
-      <c r="ALJ52" s="0"/>
-      <c r="ALK52" s="0"/>
-      <c r="ALL52" s="0"/>
-      <c r="ALM52" s="0"/>
-      <c r="ALN52" s="0"/>
-      <c r="ALO52" s="0"/>
-      <c r="ALP52" s="0"/>
-      <c r="ALQ52" s="0"/>
-      <c r="ALR52" s="0"/>
-      <c r="ALS52" s="0"/>
-      <c r="ALT52" s="0"/>
-      <c r="ALU52" s="0"/>
-      <c r="ALV52" s="0"/>
-      <c r="ALW52" s="0"/>
-      <c r="ALX52" s="0"/>
-      <c r="ALY52" s="0"/>
-      <c r="ALZ52" s="0"/>
-      <c r="AMA52" s="0"/>
-      <c r="AMB52" s="0"/>
-      <c r="AMC52" s="0"/>
-      <c r="AMD52" s="0"/>
-      <c r="AME52" s="0"/>
-      <c r="AMF52" s="0"/>
-      <c r="AMG52" s="0"/>
-      <c r="AMH52" s="0"/>
-      <c r="AMI52" s="0"/>
-      <c r="AMJ52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+      <c r="AJ52"/>
+      <c r="AK52"/>
+      <c r="AL52"/>
+      <c r="AM52"/>
+      <c r="AN52"/>
+      <c r="AO52"/>
+      <c r="AP52"/>
+      <c r="AQ52"/>
+      <c r="AR52"/>
+      <c r="AS52"/>
+      <c r="AT52"/>
+      <c r="AU52"/>
+      <c r="AV52"/>
+      <c r="AW52"/>
+      <c r="AX52"/>
+      <c r="AY52"/>
+      <c r="AZ52"/>
+      <c r="BA52"/>
+      <c r="BB52"/>
+      <c r="BC52"/>
+      <c r="BD52"/>
+      <c r="BE52"/>
+      <c r="BF52"/>
+      <c r="BG52"/>
+      <c r="BH52"/>
+      <c r="BI52"/>
+      <c r="BJ52"/>
+      <c r="BK52"/>
+      <c r="BL52"/>
+      <c r="BM52"/>
+      <c r="BN52"/>
+      <c r="BO52"/>
+      <c r="BP52"/>
+      <c r="BQ52"/>
+      <c r="BR52"/>
+      <c r="BS52"/>
+      <c r="BT52"/>
+      <c r="BU52"/>
+      <c r="BV52"/>
+      <c r="BW52"/>
+      <c r="BX52"/>
+      <c r="BY52"/>
+      <c r="BZ52"/>
+      <c r="CA52"/>
+      <c r="CB52"/>
+      <c r="CC52"/>
+      <c r="CD52"/>
+      <c r="CE52"/>
+      <c r="CF52"/>
+      <c r="CG52"/>
+      <c r="CH52"/>
+      <c r="CI52"/>
+      <c r="CJ52"/>
+      <c r="CK52"/>
+      <c r="CL52"/>
+      <c r="CM52"/>
+      <c r="CN52"/>
+      <c r="CO52"/>
+      <c r="CP52"/>
+      <c r="CQ52"/>
+      <c r="CR52"/>
+      <c r="CS52"/>
+      <c r="CT52"/>
+      <c r="CU52"/>
+      <c r="CV52"/>
+      <c r="CW52"/>
+      <c r="CX52"/>
+      <c r="CY52"/>
+      <c r="CZ52"/>
+      <c r="DA52"/>
+      <c r="DB52"/>
+      <c r="DC52"/>
+      <c r="DD52"/>
+      <c r="DE52"/>
+      <c r="DF52"/>
+      <c r="DG52"/>
+      <c r="DH52"/>
+      <c r="DI52"/>
+      <c r="DJ52"/>
+      <c r="DK52"/>
+      <c r="DL52"/>
+      <c r="DM52"/>
+      <c r="DN52"/>
+      <c r="DO52"/>
+      <c r="DP52"/>
+      <c r="DQ52"/>
+      <c r="DR52"/>
+      <c r="DS52"/>
+      <c r="DT52"/>
+      <c r="DU52"/>
+      <c r="DV52"/>
+      <c r="DW52"/>
+      <c r="DX52"/>
+      <c r="DY52"/>
+      <c r="DZ52"/>
+      <c r="EA52"/>
+      <c r="EB52"/>
+      <c r="EC52"/>
+      <c r="ED52"/>
+      <c r="EE52"/>
+      <c r="EF52"/>
+      <c r="EG52"/>
+      <c r="EH52"/>
+      <c r="EI52"/>
+      <c r="EJ52"/>
+      <c r="EK52"/>
+      <c r="EL52"/>
+      <c r="EM52"/>
+      <c r="EN52"/>
+      <c r="EO52"/>
+      <c r="EP52"/>
+      <c r="EQ52"/>
+      <c r="ER52"/>
+      <c r="ES52"/>
+      <c r="ET52"/>
+      <c r="EU52"/>
+      <c r="EV52"/>
+      <c r="EW52"/>
+      <c r="EX52"/>
+      <c r="EY52"/>
+      <c r="EZ52"/>
+      <c r="FA52"/>
+      <c r="FB52"/>
+      <c r="FC52"/>
+      <c r="FD52"/>
+      <c r="FE52"/>
+      <c r="FF52"/>
+      <c r="FG52"/>
+      <c r="FH52"/>
+      <c r="FI52"/>
+      <c r="FJ52"/>
+      <c r="FK52"/>
+      <c r="FL52"/>
+      <c r="FM52"/>
+      <c r="FN52"/>
+      <c r="FO52"/>
+      <c r="FP52"/>
+      <c r="FQ52"/>
+      <c r="FR52"/>
+      <c r="FS52"/>
+      <c r="FT52"/>
+      <c r="FU52"/>
+      <c r="FV52"/>
+      <c r="FW52"/>
+      <c r="FX52"/>
+      <c r="FY52"/>
+      <c r="FZ52"/>
+      <c r="GA52"/>
+      <c r="GB52"/>
+      <c r="GC52"/>
+      <c r="GD52"/>
+      <c r="GE52"/>
+      <c r="GF52"/>
+      <c r="GG52"/>
+      <c r="GH52"/>
+      <c r="GI52"/>
+      <c r="GJ52"/>
+      <c r="GK52"/>
+      <c r="GL52"/>
+      <c r="GM52"/>
+      <c r="GN52"/>
+      <c r="GO52"/>
+      <c r="GP52"/>
+      <c r="GQ52"/>
+      <c r="GR52"/>
+      <c r="GS52"/>
+      <c r="GT52"/>
+      <c r="GU52"/>
+      <c r="GV52"/>
+      <c r="GW52"/>
+      <c r="GX52"/>
+      <c r="GY52"/>
+      <c r="GZ52"/>
+      <c r="HA52"/>
+      <c r="HB52"/>
+      <c r="HC52"/>
+      <c r="HD52"/>
+      <c r="HE52"/>
+      <c r="HF52"/>
+      <c r="HG52"/>
+      <c r="HH52"/>
+      <c r="HI52"/>
+      <c r="HJ52"/>
+      <c r="HK52"/>
+      <c r="HL52"/>
+      <c r="HM52"/>
+      <c r="HN52"/>
+      <c r="HO52"/>
+      <c r="HP52"/>
+      <c r="HQ52"/>
+      <c r="HR52"/>
+      <c r="HS52"/>
+      <c r="HT52"/>
+      <c r="HU52"/>
+      <c r="HV52"/>
+      <c r="HW52"/>
+      <c r="HX52"/>
+      <c r="HY52"/>
+      <c r="HZ52"/>
+      <c r="IA52"/>
+      <c r="IB52"/>
+      <c r="IC52"/>
+      <c r="ID52"/>
+      <c r="IE52"/>
+      <c r="IF52"/>
+      <c r="IG52"/>
+      <c r="IH52"/>
+      <c r="II52"/>
+      <c r="IJ52"/>
+      <c r="IK52"/>
+      <c r="IL52"/>
+      <c r="IM52"/>
+      <c r="IN52"/>
+      <c r="IO52"/>
+      <c r="IP52"/>
+      <c r="IQ52"/>
+      <c r="IR52"/>
+      <c r="IS52"/>
+      <c r="IT52"/>
+      <c r="IU52"/>
+      <c r="IV52"/>
+      <c r="IW52"/>
+      <c r="IX52"/>
+      <c r="IY52"/>
+      <c r="IZ52"/>
+      <c r="JA52"/>
+      <c r="JB52"/>
+      <c r="JC52"/>
+      <c r="JD52"/>
+      <c r="JE52"/>
+      <c r="JF52"/>
+      <c r="JG52"/>
+      <c r="JH52"/>
+      <c r="JI52"/>
+      <c r="JJ52"/>
+      <c r="JK52"/>
+      <c r="JL52"/>
+      <c r="JM52"/>
+      <c r="JN52"/>
+      <c r="JO52"/>
+      <c r="JP52"/>
+      <c r="JQ52"/>
+      <c r="JR52"/>
+      <c r="JS52"/>
+      <c r="JT52"/>
+      <c r="JU52"/>
+      <c r="JV52"/>
+      <c r="JW52"/>
+      <c r="JX52"/>
+      <c r="JY52"/>
+      <c r="JZ52"/>
+      <c r="KA52"/>
+      <c r="KB52"/>
+      <c r="KC52"/>
+      <c r="KD52"/>
+      <c r="KE52"/>
+      <c r="KF52"/>
+      <c r="KG52"/>
+      <c r="KH52"/>
+      <c r="KI52"/>
+      <c r="KJ52"/>
+      <c r="KK52"/>
+      <c r="KL52"/>
+      <c r="KM52"/>
+      <c r="KN52"/>
+      <c r="KO52"/>
+      <c r="KP52"/>
+      <c r="KQ52"/>
+      <c r="KR52"/>
+      <c r="KS52"/>
+      <c r="KT52"/>
+      <c r="KU52"/>
+      <c r="KV52"/>
+      <c r="KW52"/>
+      <c r="KX52"/>
+      <c r="KY52"/>
+      <c r="KZ52"/>
+      <c r="LA52"/>
+      <c r="LB52"/>
+      <c r="LC52"/>
+      <c r="LD52"/>
+      <c r="LE52"/>
+      <c r="LF52"/>
+      <c r="LG52"/>
+      <c r="LH52"/>
+      <c r="LI52"/>
+      <c r="LJ52"/>
+      <c r="LK52"/>
+      <c r="LL52"/>
+      <c r="LM52"/>
+      <c r="LN52"/>
+      <c r="LO52"/>
+      <c r="LP52"/>
+      <c r="LQ52"/>
+      <c r="LR52"/>
+      <c r="LS52"/>
+      <c r="LT52"/>
+      <c r="LU52"/>
+      <c r="LV52"/>
+      <c r="LW52"/>
+      <c r="LX52"/>
+      <c r="LY52"/>
+      <c r="LZ52"/>
+      <c r="MA52"/>
+      <c r="MB52"/>
+      <c r="MC52"/>
+      <c r="MD52"/>
+      <c r="ME52"/>
+      <c r="MF52"/>
+      <c r="MG52"/>
+      <c r="MH52"/>
+      <c r="MI52"/>
+      <c r="MJ52"/>
+      <c r="MK52"/>
+      <c r="ML52"/>
+      <c r="MM52"/>
+      <c r="MN52"/>
+      <c r="MO52"/>
+      <c r="MP52"/>
+      <c r="MQ52"/>
+      <c r="MR52"/>
+      <c r="MS52"/>
+      <c r="MT52"/>
+      <c r="MU52"/>
+      <c r="MV52"/>
+      <c r="MW52"/>
+      <c r="MX52"/>
+      <c r="MY52"/>
+      <c r="MZ52"/>
+      <c r="NA52"/>
+      <c r="NB52"/>
+      <c r="NC52"/>
+      <c r="ND52"/>
+      <c r="NE52"/>
+      <c r="NF52"/>
+      <c r="NG52"/>
+      <c r="NH52"/>
+      <c r="NI52"/>
+      <c r="NJ52"/>
+      <c r="NK52"/>
+      <c r="NL52"/>
+      <c r="NM52"/>
+      <c r="NN52"/>
+      <c r="NO52"/>
+      <c r="NP52"/>
+      <c r="NQ52"/>
+      <c r="NR52"/>
+      <c r="NS52"/>
+      <c r="NT52"/>
+      <c r="NU52"/>
+      <c r="NV52"/>
+      <c r="NW52"/>
+      <c r="NX52"/>
+      <c r="NY52"/>
+      <c r="NZ52"/>
+      <c r="OA52"/>
+      <c r="OB52"/>
+      <c r="OC52"/>
+      <c r="OD52"/>
+      <c r="OE52"/>
+      <c r="OF52"/>
+      <c r="OG52"/>
+      <c r="OH52"/>
+      <c r="OI52"/>
+      <c r="OJ52"/>
+      <c r="OK52"/>
+      <c r="OL52"/>
+      <c r="OM52"/>
+      <c r="ON52"/>
+      <c r="OO52"/>
+      <c r="OP52"/>
+      <c r="OQ52"/>
+      <c r="OR52"/>
+      <c r="OS52"/>
+      <c r="OT52"/>
+      <c r="OU52"/>
+      <c r="OV52"/>
+      <c r="OW52"/>
+      <c r="OX52"/>
+      <c r="OY52"/>
+      <c r="OZ52"/>
+      <c r="PA52"/>
+      <c r="PB52"/>
+      <c r="PC52"/>
+      <c r="PD52"/>
+      <c r="PE52"/>
+      <c r="PF52"/>
+      <c r="PG52"/>
+      <c r="PH52"/>
+      <c r="PI52"/>
+      <c r="PJ52"/>
+      <c r="PK52"/>
+      <c r="PL52"/>
+      <c r="PM52"/>
+      <c r="PN52"/>
+      <c r="PO52"/>
+      <c r="PP52"/>
+      <c r="PQ52"/>
+      <c r="PR52"/>
+      <c r="PS52"/>
+      <c r="PT52"/>
+      <c r="PU52"/>
+      <c r="PV52"/>
+      <c r="PW52"/>
+      <c r="PX52"/>
+      <c r="PY52"/>
+      <c r="PZ52"/>
+      <c r="QA52"/>
+      <c r="QB52"/>
+      <c r="QC52"/>
+      <c r="QD52"/>
+      <c r="QE52"/>
+      <c r="QF52"/>
+      <c r="QG52"/>
+      <c r="QH52"/>
+      <c r="QI52"/>
+      <c r="QJ52"/>
+      <c r="QK52"/>
+      <c r="QL52"/>
+      <c r="QM52"/>
+      <c r="QN52"/>
+      <c r="QO52"/>
+      <c r="QP52"/>
+      <c r="QQ52"/>
+      <c r="QR52"/>
+      <c r="QS52"/>
+      <c r="QT52"/>
+      <c r="QU52"/>
+      <c r="QV52"/>
+      <c r="QW52"/>
+      <c r="QX52"/>
+      <c r="QY52"/>
+      <c r="QZ52"/>
+      <c r="RA52"/>
+      <c r="RB52"/>
+      <c r="RC52"/>
+      <c r="RD52"/>
+      <c r="RE52"/>
+      <c r="RF52"/>
+      <c r="RG52"/>
+      <c r="RH52"/>
+      <c r="RI52"/>
+      <c r="RJ52"/>
+      <c r="RK52"/>
+      <c r="RL52"/>
+      <c r="RM52"/>
+      <c r="RN52"/>
+      <c r="RO52"/>
+      <c r="RP52"/>
+      <c r="RQ52"/>
+      <c r="RR52"/>
+      <c r="RS52"/>
+      <c r="RT52"/>
+      <c r="RU52"/>
+      <c r="RV52"/>
+      <c r="RW52"/>
+      <c r="RX52"/>
+      <c r="RY52"/>
+      <c r="RZ52"/>
+      <c r="SA52"/>
+      <c r="SB52"/>
+      <c r="SC52"/>
+      <c r="SD52"/>
+      <c r="SE52"/>
+      <c r="SF52"/>
+      <c r="SG52"/>
+      <c r="SH52"/>
+      <c r="SI52"/>
+      <c r="SJ52"/>
+      <c r="SK52"/>
+      <c r="SL52"/>
+      <c r="SM52"/>
+      <c r="SN52"/>
+      <c r="SO52"/>
+      <c r="SP52"/>
+      <c r="SQ52"/>
+      <c r="SR52"/>
+      <c r="SS52"/>
+      <c r="ST52"/>
+      <c r="SU52"/>
+      <c r="SV52"/>
+      <c r="SW52"/>
+      <c r="SX52"/>
+      <c r="SY52"/>
+      <c r="SZ52"/>
+      <c r="TA52"/>
+      <c r="TB52"/>
+      <c r="TC52"/>
+      <c r="TD52"/>
+      <c r="TE52"/>
+      <c r="TF52"/>
+      <c r="TG52"/>
+      <c r="TH52"/>
+      <c r="TI52"/>
+      <c r="TJ52"/>
+      <c r="TK52"/>
+      <c r="TL52"/>
+      <c r="TM52"/>
+      <c r="TN52"/>
+      <c r="TO52"/>
+      <c r="TP52"/>
+      <c r="TQ52"/>
+      <c r="TR52"/>
+      <c r="TS52"/>
+      <c r="TT52"/>
+      <c r="TU52"/>
+      <c r="TV52"/>
+      <c r="TW52"/>
+      <c r="TX52"/>
+      <c r="TY52"/>
+      <c r="TZ52"/>
+      <c r="UA52"/>
+      <c r="UB52"/>
+      <c r="UC52"/>
+      <c r="UD52"/>
+      <c r="UE52"/>
+      <c r="UF52"/>
+      <c r="UG52"/>
+      <c r="UH52"/>
+      <c r="UI52"/>
+      <c r="UJ52"/>
+      <c r="UK52"/>
+      <c r="UL52"/>
+      <c r="UM52"/>
+      <c r="UN52"/>
+      <c r="UO52"/>
+      <c r="UP52"/>
+      <c r="UQ52"/>
+      <c r="UR52"/>
+      <c r="US52"/>
+      <c r="UT52"/>
+      <c r="UU52"/>
+      <c r="UV52"/>
+      <c r="UW52"/>
+      <c r="UX52"/>
+      <c r="UY52"/>
+      <c r="UZ52"/>
+      <c r="VA52"/>
+      <c r="VB52"/>
+      <c r="VC52"/>
+      <c r="VD52"/>
+      <c r="VE52"/>
+      <c r="VF52"/>
+      <c r="VG52"/>
+      <c r="VH52"/>
+      <c r="VI52"/>
+      <c r="VJ52"/>
+      <c r="VK52"/>
+      <c r="VL52"/>
+      <c r="VM52"/>
+      <c r="VN52"/>
+      <c r="VO52"/>
+      <c r="VP52"/>
+      <c r="VQ52"/>
+      <c r="VR52"/>
+      <c r="VS52"/>
+      <c r="VT52"/>
+      <c r="VU52"/>
+      <c r="VV52"/>
+      <c r="VW52"/>
+      <c r="VX52"/>
+      <c r="VY52"/>
+      <c r="VZ52"/>
+      <c r="WA52"/>
+      <c r="WB52"/>
+      <c r="WC52"/>
+      <c r="WD52"/>
+      <c r="WE52"/>
+      <c r="WF52"/>
+      <c r="WG52"/>
+      <c r="WH52"/>
+      <c r="WI52"/>
+      <c r="WJ52"/>
+      <c r="WK52"/>
+      <c r="WL52"/>
+      <c r="WM52"/>
+      <c r="WN52"/>
+      <c r="WO52"/>
+      <c r="WP52"/>
+      <c r="WQ52"/>
+      <c r="WR52"/>
+      <c r="WS52"/>
+      <c r="WT52"/>
+      <c r="WU52"/>
+      <c r="WV52"/>
+      <c r="WW52"/>
+      <c r="WX52"/>
+      <c r="WY52"/>
+      <c r="WZ52"/>
+      <c r="XA52"/>
+      <c r="XB52"/>
+      <c r="XC52"/>
+      <c r="XD52"/>
+      <c r="XE52"/>
+      <c r="XF52"/>
+      <c r="XG52"/>
+      <c r="XH52"/>
+      <c r="XI52"/>
+      <c r="XJ52"/>
+      <c r="XK52"/>
+      <c r="XL52"/>
+      <c r="XM52"/>
+      <c r="XN52"/>
+      <c r="XO52"/>
+      <c r="XP52"/>
+      <c r="XQ52"/>
+      <c r="XR52"/>
+      <c r="XS52"/>
+      <c r="XT52"/>
+      <c r="XU52"/>
+      <c r="XV52"/>
+      <c r="XW52"/>
+      <c r="XX52"/>
+      <c r="XY52"/>
+      <c r="XZ52"/>
+      <c r="YA52"/>
+      <c r="YB52"/>
+      <c r="YC52"/>
+      <c r="YD52"/>
+      <c r="YE52"/>
+      <c r="YF52"/>
+      <c r="YG52"/>
+      <c r="YH52"/>
+      <c r="YI52"/>
+      <c r="YJ52"/>
+      <c r="YK52"/>
+      <c r="YL52"/>
+      <c r="YM52"/>
+      <c r="YN52"/>
+      <c r="YO52"/>
+      <c r="YP52"/>
+      <c r="YQ52"/>
+      <c r="YR52"/>
+      <c r="YS52"/>
+      <c r="YT52"/>
+      <c r="YU52"/>
+      <c r="YV52"/>
+      <c r="YW52"/>
+      <c r="YX52"/>
+      <c r="YY52"/>
+      <c r="YZ52"/>
+      <c r="ZA52"/>
+      <c r="ZB52"/>
+      <c r="ZC52"/>
+      <c r="ZD52"/>
+      <c r="ZE52"/>
+      <c r="ZF52"/>
+      <c r="ZG52"/>
+      <c r="ZH52"/>
+      <c r="ZI52"/>
+      <c r="ZJ52"/>
+      <c r="ZK52"/>
+      <c r="ZL52"/>
+      <c r="ZM52"/>
+      <c r="ZN52"/>
+      <c r="ZO52"/>
+      <c r="ZP52"/>
+      <c r="ZQ52"/>
+      <c r="ZR52"/>
+      <c r="ZS52"/>
+      <c r="ZT52"/>
+      <c r="ZU52"/>
+      <c r="ZV52"/>
+      <c r="ZW52"/>
+      <c r="ZX52"/>
+      <c r="ZY52"/>
+      <c r="ZZ52"/>
+      <c r="AAA52"/>
+      <c r="AAB52"/>
+      <c r="AAC52"/>
+      <c r="AAD52"/>
+      <c r="AAE52"/>
+      <c r="AAF52"/>
+      <c r="AAG52"/>
+      <c r="AAH52"/>
+      <c r="AAI52"/>
+      <c r="AAJ52"/>
+      <c r="AAK52"/>
+      <c r="AAL52"/>
+      <c r="AAM52"/>
+      <c r="AAN52"/>
+      <c r="AAO52"/>
+      <c r="AAP52"/>
+      <c r="AAQ52"/>
+      <c r="AAR52"/>
+      <c r="AAS52"/>
+      <c r="AAT52"/>
+      <c r="AAU52"/>
+      <c r="AAV52"/>
+      <c r="AAW52"/>
+      <c r="AAX52"/>
+      <c r="AAY52"/>
+      <c r="AAZ52"/>
+      <c r="ABA52"/>
+      <c r="ABB52"/>
+      <c r="ABC52"/>
+      <c r="ABD52"/>
+      <c r="ABE52"/>
+      <c r="ABF52"/>
+      <c r="ABG52"/>
+      <c r="ABH52"/>
+      <c r="ABI52"/>
+      <c r="ABJ52"/>
+      <c r="ABK52"/>
+      <c r="ABL52"/>
+      <c r="ABM52"/>
+      <c r="ABN52"/>
+      <c r="ABO52"/>
+      <c r="ABP52"/>
+      <c r="ABQ52"/>
+      <c r="ABR52"/>
+      <c r="ABS52"/>
+      <c r="ABT52"/>
+      <c r="ABU52"/>
+      <c r="ABV52"/>
+      <c r="ABW52"/>
+      <c r="ABX52"/>
+      <c r="ABY52"/>
+      <c r="ABZ52"/>
+      <c r="ACA52"/>
+      <c r="ACB52"/>
+      <c r="ACC52"/>
+      <c r="ACD52"/>
+      <c r="ACE52"/>
+      <c r="ACF52"/>
+      <c r="ACG52"/>
+      <c r="ACH52"/>
+      <c r="ACI52"/>
+      <c r="ACJ52"/>
+      <c r="ACK52"/>
+      <c r="ACL52"/>
+      <c r="ACM52"/>
+      <c r="ACN52"/>
+      <c r="ACO52"/>
+      <c r="ACP52"/>
+      <c r="ACQ52"/>
+      <c r="ACR52"/>
+      <c r="ACS52"/>
+      <c r="ACT52"/>
+      <c r="ACU52"/>
+      <c r="ACV52"/>
+      <c r="ACW52"/>
+      <c r="ACX52"/>
+      <c r="ACY52"/>
+      <c r="ACZ52"/>
+      <c r="ADA52"/>
+      <c r="ADB52"/>
+      <c r="ADC52"/>
+      <c r="ADD52"/>
+      <c r="ADE52"/>
+      <c r="ADF52"/>
+      <c r="ADG52"/>
+      <c r="ADH52"/>
+      <c r="ADI52"/>
+      <c r="ADJ52"/>
+      <c r="ADK52"/>
+      <c r="ADL52"/>
+      <c r="ADM52"/>
+      <c r="ADN52"/>
+      <c r="ADO52"/>
+      <c r="ADP52"/>
+      <c r="ADQ52"/>
+      <c r="ADR52"/>
+      <c r="ADS52"/>
+      <c r="ADT52"/>
+      <c r="ADU52"/>
+      <c r="ADV52"/>
+      <c r="ADW52"/>
+      <c r="ADX52"/>
+      <c r="ADY52"/>
+      <c r="ADZ52"/>
+      <c r="AEA52"/>
+      <c r="AEB52"/>
+      <c r="AEC52"/>
+      <c r="AED52"/>
+      <c r="AEE52"/>
+      <c r="AEF52"/>
+      <c r="AEG52"/>
+      <c r="AEH52"/>
+      <c r="AEI52"/>
+      <c r="AEJ52"/>
+      <c r="AEK52"/>
+      <c r="AEL52"/>
+      <c r="AEM52"/>
+      <c r="AEN52"/>
+      <c r="AEO52"/>
+      <c r="AEP52"/>
+      <c r="AEQ52"/>
+      <c r="AER52"/>
+      <c r="AES52"/>
+      <c r="AET52"/>
+      <c r="AEU52"/>
+      <c r="AEV52"/>
+      <c r="AEW52"/>
+      <c r="AEX52"/>
+      <c r="AEY52"/>
+      <c r="AEZ52"/>
+      <c r="AFA52"/>
+      <c r="AFB52"/>
+      <c r="AFC52"/>
+      <c r="AFD52"/>
+      <c r="AFE52"/>
+      <c r="AFF52"/>
+      <c r="AFG52"/>
+      <c r="AFH52"/>
+      <c r="AFI52"/>
+      <c r="AFJ52"/>
+      <c r="AFK52"/>
+      <c r="AFL52"/>
+      <c r="AFM52"/>
+      <c r="AFN52"/>
+      <c r="AFO52"/>
+      <c r="AFP52"/>
+      <c r="AFQ52"/>
+      <c r="AFR52"/>
+      <c r="AFS52"/>
+      <c r="AFT52"/>
+      <c r="AFU52"/>
+      <c r="AFV52"/>
+      <c r="AFW52"/>
+      <c r="AFX52"/>
+      <c r="AFY52"/>
+      <c r="AFZ52"/>
+      <c r="AGA52"/>
+      <c r="AGB52"/>
+      <c r="AGC52"/>
+      <c r="AGD52"/>
+      <c r="AGE52"/>
+      <c r="AGF52"/>
+      <c r="AGG52"/>
+      <c r="AGH52"/>
+      <c r="AGI52"/>
+      <c r="AGJ52"/>
+      <c r="AGK52"/>
+      <c r="AGL52"/>
+      <c r="AGM52"/>
+      <c r="AGN52"/>
+      <c r="AGO52"/>
+      <c r="AGP52"/>
+      <c r="AGQ52"/>
+      <c r="AGR52"/>
+      <c r="AGS52"/>
+      <c r="AGT52"/>
+      <c r="AGU52"/>
+      <c r="AGV52"/>
+      <c r="AGW52"/>
+      <c r="AGX52"/>
+      <c r="AGY52"/>
+      <c r="AGZ52"/>
+      <c r="AHA52"/>
+      <c r="AHB52"/>
+      <c r="AHC52"/>
+      <c r="AHD52"/>
+      <c r="AHE52"/>
+      <c r="AHF52"/>
+      <c r="AHG52"/>
+      <c r="AHH52"/>
+      <c r="AHI52"/>
+      <c r="AHJ52"/>
+      <c r="AHK52"/>
+      <c r="AHL52"/>
+      <c r="AHM52"/>
+      <c r="AHN52"/>
+      <c r="AHO52"/>
+      <c r="AHP52"/>
+      <c r="AHQ52"/>
+      <c r="AHR52"/>
+      <c r="AHS52"/>
+      <c r="AHT52"/>
+      <c r="AHU52"/>
+      <c r="AHV52"/>
+      <c r="AHW52"/>
+      <c r="AHX52"/>
+      <c r="AHY52"/>
+      <c r="AHZ52"/>
+      <c r="AIA52"/>
+      <c r="AIB52"/>
+      <c r="AIC52"/>
+      <c r="AID52"/>
+      <c r="AIE52"/>
+      <c r="AIF52"/>
+      <c r="AIG52"/>
+      <c r="AIH52"/>
+      <c r="AII52"/>
+      <c r="AIJ52"/>
+      <c r="AIK52"/>
+      <c r="AIL52"/>
+      <c r="AIM52"/>
+      <c r="AIN52"/>
+      <c r="AIO52"/>
+      <c r="AIP52"/>
+      <c r="AIQ52"/>
+      <c r="AIR52"/>
+      <c r="AIS52"/>
+      <c r="AIT52"/>
+      <c r="AIU52"/>
+      <c r="AIV52"/>
+      <c r="AIW52"/>
+      <c r="AIX52"/>
+      <c r="AIY52"/>
+      <c r="AIZ52"/>
+      <c r="AJA52"/>
+      <c r="AJB52"/>
+      <c r="AJC52"/>
+      <c r="AJD52"/>
+      <c r="AJE52"/>
+      <c r="AJF52"/>
+      <c r="AJG52"/>
+      <c r="AJH52"/>
+      <c r="AJI52"/>
+      <c r="AJJ52"/>
+      <c r="AJK52"/>
+      <c r="AJL52"/>
+      <c r="AJM52"/>
+      <c r="AJN52"/>
+      <c r="AJO52"/>
+      <c r="AJP52"/>
+      <c r="AJQ52"/>
+      <c r="AJR52"/>
+      <c r="AJS52"/>
+      <c r="AJT52"/>
+      <c r="AJU52"/>
+      <c r="AJV52"/>
+      <c r="AJW52"/>
+      <c r="AJX52"/>
+      <c r="AJY52"/>
+      <c r="AJZ52"/>
+      <c r="AKA52"/>
+      <c r="AKB52"/>
+      <c r="AKC52"/>
+      <c r="AKD52"/>
+      <c r="AKE52"/>
+      <c r="AKF52"/>
+      <c r="AKG52"/>
+      <c r="AKH52"/>
+      <c r="AKI52"/>
+      <c r="AKJ52"/>
+      <c r="AKK52"/>
+      <c r="AKL52"/>
+      <c r="AKM52"/>
+      <c r="AKN52"/>
+      <c r="AKO52"/>
+      <c r="AKP52"/>
+      <c r="AKQ52"/>
+      <c r="AKR52"/>
+      <c r="AKS52"/>
+      <c r="AKT52"/>
+      <c r="AKU52"/>
+      <c r="AKV52"/>
+      <c r="AKW52"/>
+      <c r="AKX52"/>
+      <c r="AKY52"/>
+      <c r="AKZ52"/>
+      <c r="ALA52"/>
+      <c r="ALB52"/>
+      <c r="ALC52"/>
+      <c r="ALD52"/>
+      <c r="ALE52"/>
+      <c r="ALF52"/>
+      <c r="ALG52"/>
+      <c r="ALH52"/>
+      <c r="ALI52"/>
+      <c r="ALJ52"/>
+      <c r="ALK52"/>
+      <c r="ALL52"/>
+      <c r="ALM52"/>
+      <c r="ALN52"/>
+      <c r="ALO52"/>
+      <c r="ALP52"/>
+      <c r="ALQ52"/>
+      <c r="ALR52"/>
+      <c r="ALS52"/>
+      <c r="ALT52"/>
+      <c r="ALU52"/>
+      <c r="ALV52"/>
+      <c r="ALW52"/>
+      <c r="ALX52"/>
+      <c r="ALY52"/>
+      <c r="ALZ52"/>
+      <c r="AMA52"/>
+      <c r="AMB52"/>
+      <c r="AMC52"/>
+      <c r="AMD52"/>
+      <c r="AME52"/>
+      <c r="AMF52"/>
+      <c r="AMG52"/>
+      <c r="AMH52"/>
+      <c r="AMI52"/>
+      <c r="AMJ52"/>
+    </row>
+    <row r="53" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="1" t="n">
+      <c r="C53" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
@@ -2502,7 +2888,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
@@ -2510,7 +2896,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -2518,19 +2904,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="1" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C57" s="1" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2924,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>66</v>
       </c>
@@ -2546,7 +2932,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>67</v>
       </c>
@@ -2554,7 +2940,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>68</v>
       </c>
@@ -2562,51 +2948,51 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="1" t="n">
+      <c r="C62" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="1" t="n">
+      <c r="C63" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="1" t="n">
+      <c r="C64" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="1" t="n">
+      <c r="C65" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
@@ -2614,44 +3000,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:B1065" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1065" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F243"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C141" activeCellId="0" sqref="C141"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.86"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>74</v>
       </c>
@@ -2667,7 +3044,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>76</v>
       </c>
@@ -2681,7 +3058,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>76</v>
       </c>
@@ -2695,7 +3072,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
@@ -2709,7 +3086,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>76</v>
       </c>
@@ -2723,7 +3100,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>76</v>
       </c>
@@ -2737,7 +3114,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -2751,7 +3128,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -2765,7 +3142,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>76</v>
       </c>
@@ -2779,7 +3156,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>76</v>
       </c>
@@ -2793,7 +3170,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
@@ -2807,7 +3184,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>76</v>
       </c>
@@ -2821,7 +3198,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -2835,7 +3212,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -2849,7 +3226,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
@@ -2863,7 +3240,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>76</v>
       </c>
@@ -2877,7 +3254,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>76</v>
       </c>
@@ -2891,7 +3268,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>76</v>
       </c>
@@ -2905,7 +3282,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>76</v>
       </c>
@@ -2919,7 +3296,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>76</v>
       </c>
@@ -2933,7 +3310,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>76</v>
       </c>
@@ -2947,7 +3324,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
@@ -2961,7 +3338,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>76</v>
       </c>
@@ -2975,7 +3352,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>99</v>
       </c>
@@ -2989,7 +3366,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>99</v>
       </c>
@@ -3003,7 +3380,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>99</v>
       </c>
@@ -3017,7 +3394,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>99</v>
       </c>
@@ -3031,7 +3408,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>99</v>
       </c>
@@ -3045,7 +3422,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>99</v>
       </c>
@@ -3059,7 +3436,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>99</v>
       </c>
@@ -3073,7 +3450,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>99</v>
       </c>
@@ -3087,7 +3464,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>99</v>
       </c>
@@ -3101,7 +3478,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>99</v>
       </c>
@@ -3115,7 +3492,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>99</v>
       </c>
@@ -3129,7 +3506,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>99</v>
       </c>
@@ -3143,7 +3520,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>99</v>
       </c>
@@ -3157,7 +3534,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>99</v>
       </c>
@@ -3171,7 +3548,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>99</v>
       </c>
@@ -3185,7 +3562,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>99</v>
       </c>
@@ -3199,7 +3576,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>99</v>
       </c>
@@ -3213,7 +3590,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>99</v>
       </c>
@@ -3227,7 +3604,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>99</v>
       </c>
@@ -3241,7 +3618,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>99</v>
       </c>
@@ -3255,7 +3632,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>99</v>
       </c>
@@ -3269,7 +3646,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>99</v>
       </c>
@@ -3283,7 +3660,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>100</v>
       </c>
@@ -3297,7 +3674,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>100</v>
       </c>
@@ -3311,7 +3688,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>100</v>
       </c>
@@ -3325,7 +3702,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>100</v>
       </c>
@@ -3339,7 +3716,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>100</v>
       </c>
@@ -3353,7 +3730,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
@@ -3367,7 +3744,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>105</v>
       </c>
@@ -3381,7 +3758,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>105</v>
       </c>
@@ -3395,7 +3772,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>105</v>
       </c>
@@ -3409,7 +3786,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>105</v>
       </c>
@@ -3423,7 +3800,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>105</v>
       </c>
@@ -3437,7 +3814,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>105</v>
       </c>
@@ -3451,7 +3828,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>105</v>
       </c>
@@ -3465,7 +3842,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>105</v>
       </c>
@@ -3479,7 +3856,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>105</v>
       </c>
@@ -3493,7 +3870,7 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>105</v>
       </c>
@@ -3507,7 +3884,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>105</v>
       </c>
@@ -3521,7 +3898,7 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>105</v>
       </c>
@@ -3535,7 +3912,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>105</v>
       </c>
@@ -3549,7 +3926,7 @@
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>105</v>
       </c>
@@ -3563,7 +3940,7 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>105</v>
       </c>
@@ -3577,7 +3954,7 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>105</v>
       </c>
@@ -3591,7 +3968,7 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>105</v>
       </c>
@@ -3605,7 +3982,7 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>105</v>
       </c>
@@ -3619,7 +3996,7 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>105</v>
       </c>
@@ -3633,7 +4010,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>105</v>
       </c>
@@ -3647,7 +4024,7 @@
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>105</v>
       </c>
@@ -3661,7 +4038,7 @@
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>105</v>
       </c>
@@ -3675,7 +4052,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>105</v>
       </c>
@@ -3689,7 +4066,7 @@
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>105</v>
       </c>
@@ -3703,7 +4080,7 @@
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>105</v>
       </c>
@@ -3717,7 +4094,7 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>105</v>
       </c>
@@ -3731,7 +4108,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>105</v>
       </c>
@@ -3745,7 +4122,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>105</v>
       </c>
@@ -3759,7 +4136,7 @@
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>105</v>
       </c>
@@ -3773,7 +4150,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>105</v>
       </c>
@@ -3787,7 +4164,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>105</v>
       </c>
@@ -3801,7 +4178,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>105</v>
       </c>
@@ -3815,7 +4192,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>105</v>
       </c>
@@ -3829,7 +4206,7 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>105</v>
       </c>
@@ -3843,7 +4220,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>105</v>
       </c>
@@ -3857,7 +4234,7 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>105</v>
       </c>
@@ -3871,7 +4248,7 @@
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>105</v>
       </c>
@@ -3885,7 +4262,7 @@
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>105</v>
       </c>
@@ -3899,7 +4276,7 @@
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>105</v>
       </c>
@@ -3913,7 +4290,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>105</v>
       </c>
@@ -3927,7 +4304,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>105</v>
       </c>
@@ -3941,7 +4318,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>105</v>
       </c>
@@ -3955,7 +4332,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>105</v>
       </c>
@@ -3969,7 +4346,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>105</v>
       </c>
@@ -3983,7 +4360,7 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>105</v>
       </c>
@@ -3997,7 +4374,7 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>105</v>
       </c>
@@ -4011,7 +4388,7 @@
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>105</v>
       </c>
@@ -4025,7 +4402,7 @@
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>105</v>
       </c>
@@ -4039,7 +4416,7 @@
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>105</v>
       </c>
@@ -4053,7 +4430,7 @@
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>105</v>
       </c>
@@ -4067,7 +4444,7 @@
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>105</v>
       </c>
@@ -4081,7 +4458,7 @@
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>105</v>
       </c>
@@ -4095,7 +4472,7 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>105</v>
       </c>
@@ -4109,7 +4486,7 @@
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>105</v>
       </c>
@@ -4123,7 +4500,7 @@
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>105</v>
       </c>
@@ -4137,7 +4514,7 @@
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>105</v>
       </c>
@@ -4151,7 +4528,7 @@
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>105</v>
       </c>
@@ -4165,7 +4542,7 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>105</v>
       </c>
@@ -4179,7 +4556,7 @@
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>105</v>
       </c>
@@ -4193,7 +4570,7 @@
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>105</v>
       </c>
@@ -4207,7 +4584,7 @@
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>105</v>
       </c>
@@ -4221,7 +4598,7 @@
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>105</v>
       </c>
@@ -4235,7 +4612,7 @@
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>105</v>
       </c>
@@ -4249,7 +4626,7 @@
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>105</v>
       </c>
@@ -4263,7 +4640,7 @@
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>105</v>
       </c>
@@ -4277,7 +4654,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>105</v>
       </c>
@@ -4291,7 +4668,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>105</v>
       </c>
@@ -4305,7 +4682,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>170</v>
       </c>
@@ -4319,7 +4696,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>170</v>
       </c>
@@ -4333,7 +4710,7 @@
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>170</v>
       </c>
@@ -4347,7 +4724,7 @@
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>170</v>
       </c>
@@ -4361,7 +4738,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>170</v>
       </c>
@@ -4375,7 +4752,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>170</v>
       </c>
@@ -4391,7 +4768,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>170</v>
       </c>
@@ -4407,7 +4784,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>170</v>
       </c>
@@ -4421,7 +4798,7 @@
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>170</v>
       </c>
@@ -4435,7 +4812,7 @@
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>170</v>
       </c>
@@ -4449,7 +4826,7 @@
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>170</v>
       </c>
@@ -4463,7 +4840,7 @@
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>177</v>
       </c>
@@ -4477,7 +4854,7 @@
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>177</v>
       </c>
@@ -4491,7 +4868,7 @@
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>177</v>
       </c>
@@ -4505,7 +4882,7 @@
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>177</v>
       </c>
@@ -4519,7 +4896,7 @@
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>177</v>
       </c>
@@ -4533,7 +4910,7 @@
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>177</v>
       </c>
@@ -4547,7 +4924,7 @@
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>177</v>
       </c>
@@ -4561,7 +4938,7 @@
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>177</v>
       </c>
@@ -4575,7 +4952,7 @@
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>177</v>
       </c>
@@ -4589,7 +4966,7 @@
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>177</v>
       </c>
@@ -4603,7 +4980,7 @@
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>177</v>
       </c>
@@ -4617,7 +4994,7 @@
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>186</v>
       </c>
@@ -4631,7 +5008,7 @@
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>186</v>
       </c>
@@ -4645,7 +5022,7 @@
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>186</v>
       </c>
@@ -4659,7 +5036,7 @@
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>186</v>
       </c>
@@ -4673,7 +5050,7 @@
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>186</v>
       </c>
@@ -4687,7 +5064,7 @@
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>186</v>
       </c>
@@ -4701,7 +5078,7 @@
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>186</v>
       </c>
@@ -4715,7 +5092,7 @@
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>186</v>
       </c>
@@ -4729,7 +5106,7 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>186</v>
       </c>
@@ -4743,7 +5120,7 @@
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>186</v>
       </c>
@@ -4759,7 +5136,7 @@
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>195</v>
       </c>
@@ -4773,7 +5150,7 @@
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>195</v>
       </c>
@@ -4787,7 +5164,7 @@
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>195</v>
       </c>
@@ -4801,7 +5178,7 @@
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>195</v>
       </c>
@@ -4815,7 +5192,7 @@
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>195</v>
       </c>
@@ -4829,7 +5206,7 @@
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>195</v>
       </c>
@@ -4841,7 +5218,7 @@
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>195</v>
       </c>
@@ -4855,7 +5232,7 @@
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>195</v>
       </c>
@@ -4869,7 +5246,7 @@
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>195</v>
       </c>
@@ -4883,7 +5260,7 @@
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>195</v>
       </c>
@@ -4897,7 +5274,7 @@
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>195</v>
       </c>
@@ -4911,7 +5288,7 @@
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>195</v>
       </c>
@@ -4925,7 +5302,7 @@
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>207</v>
       </c>
@@ -4939,7 +5316,7 @@
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>207</v>
       </c>
@@ -4953,7 +5330,7 @@
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>207</v>
       </c>
@@ -4967,7 +5344,7 @@
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>207</v>
       </c>
@@ -4981,7 +5358,7 @@
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>207</v>
       </c>
@@ -4995,7 +5372,7 @@
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>211</v>
       </c>
@@ -5009,7 +5386,7 @@
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>211</v>
       </c>
@@ -5023,7 +5400,7 @@
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>211</v>
       </c>
@@ -5037,7 +5414,7 @@
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>211</v>
       </c>
@@ -5051,7 +5428,7 @@
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>211</v>
       </c>
@@ -5065,7 +5442,7 @@
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>214</v>
       </c>
@@ -5079,7 +5456,7 @@
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>214</v>
       </c>
@@ -5093,7 +5470,7 @@
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>214</v>
       </c>
@@ -5107,7 +5484,7 @@
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>214</v>
       </c>
@@ -5121,7 +5498,7 @@
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>214</v>
       </c>
@@ -5135,7 +5512,7 @@
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>214</v>
       </c>
@@ -5149,7 +5526,7 @@
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>214</v>
       </c>
@@ -5163,7 +5540,7 @@
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>214</v>
       </c>
@@ -5177,7 +5554,7 @@
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>214</v>
       </c>
@@ -5191,7 +5568,7 @@
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>214</v>
       </c>
@@ -5205,7 +5582,7 @@
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>216</v>
       </c>
@@ -5221,7 +5598,7 @@
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>216</v>
       </c>
@@ -5237,7 +5614,7 @@
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>219</v>
       </c>
@@ -5251,7 +5628,7 @@
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>219</v>
       </c>
@@ -5265,7 +5642,7 @@
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>219</v>
       </c>
@@ -5279,7 +5656,7 @@
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>219</v>
       </c>
@@ -5293,7 +5670,7 @@
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>219</v>
       </c>
@@ -5307,239 +5684,405 @@
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="5"/>
-      <c r="B190" s="5"/>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
+    <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>224</v>
+      </c>
+      <c r="B190" t="s">
+        <v>225</v>
+      </c>
+      <c r="C190" t="s">
+        <v>24</v>
+      </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="5"/>
-      <c r="B191" s="5"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
+    <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>224</v>
+      </c>
+      <c r="B191" t="s">
+        <v>226</v>
+      </c>
+      <c r="C191" t="s">
+        <v>9</v>
+      </c>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="5"/>
-      <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
+    <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>224</v>
+      </c>
+      <c r="B192" t="s">
+        <v>227</v>
+      </c>
+      <c r="C192" t="s">
+        <v>65</v>
+      </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="5"/>
-      <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
+    <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>224</v>
+      </c>
+      <c r="B193" t="s">
+        <v>228</v>
+      </c>
+      <c r="C193" t="s">
+        <v>54</v>
+      </c>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="5"/>
-      <c r="B194" s="5"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
+    <row r="194" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>224</v>
+      </c>
+      <c r="B194" t="s">
+        <v>229</v>
+      </c>
+      <c r="C194" t="s">
+        <v>69</v>
+      </c>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="5"/>
-      <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
+    <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>224</v>
+      </c>
+      <c r="B195" t="s">
+        <v>230</v>
+      </c>
+      <c r="C195" t="s">
+        <v>71</v>
+      </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="5"/>
-      <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
+    <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>224</v>
+      </c>
+      <c r="B196" t="s">
+        <v>231</v>
+      </c>
+      <c r="C196" t="s">
+        <v>70</v>
+      </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="5"/>
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
+    <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>224</v>
+      </c>
+      <c r="B197" t="s">
+        <v>232</v>
+      </c>
+      <c r="C197" t="s">
+        <v>72</v>
+      </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="5"/>
-      <c r="B198" s="5"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
+    <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>224</v>
+      </c>
+      <c r="B198" t="s">
+        <v>233</v>
+      </c>
+      <c r="C198" t="s">
+        <v>55</v>
+      </c>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="5"/>
-      <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
+    <row r="199" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>224</v>
+      </c>
+      <c r="B199" t="s">
+        <v>234</v>
+      </c>
+      <c r="C199" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" t="s">
+        <v>235</v>
+      </c>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="5"/>
-      <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
+    <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>224</v>
+      </c>
+      <c r="B200" t="s">
+        <v>236</v>
+      </c>
+      <c r="C200" t="s">
+        <v>8</v>
+      </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="5"/>
-      <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
+    <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>224</v>
+      </c>
+      <c r="B201" t="s">
+        <v>237</v>
+      </c>
+      <c r="C201" t="s">
+        <v>61</v>
+      </c>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="5"/>
-      <c r="B202" s="5"/>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
+    <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>224</v>
+      </c>
+      <c r="B202" t="s">
+        <v>238</v>
+      </c>
+      <c r="C202" t="s">
+        <v>64</v>
+      </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="5"/>
-      <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
+    <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>224</v>
+      </c>
+      <c r="B203" t="s">
+        <v>239</v>
+      </c>
+      <c r="C203" t="s">
+        <v>59</v>
+      </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="5"/>
-      <c r="B204" s="5"/>
-      <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
+    <row r="204" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>224</v>
+      </c>
+      <c r="B204" t="s">
+        <v>240</v>
+      </c>
+      <c r="C204" t="s">
+        <v>24</v>
+      </c>
+      <c r="D204" t="s">
+        <v>241</v>
+      </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="5"/>
-      <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
+    <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>224</v>
+      </c>
+      <c r="B205" t="s">
+        <v>242</v>
+      </c>
+      <c r="C205" t="s">
+        <v>60</v>
+      </c>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="5"/>
-      <c r="B206" s="5"/>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
+    <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>224</v>
+      </c>
+      <c r="B206" t="s">
+        <v>243</v>
+      </c>
+      <c r="C206" t="s">
+        <v>40</v>
+      </c>
+      <c r="D206" t="s">
+        <v>244</v>
+      </c>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="5"/>
-      <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
+    <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>224</v>
+      </c>
+      <c r="B207" t="s">
+        <v>245</v>
+      </c>
+      <c r="C207" t="s">
+        <v>22</v>
+      </c>
+      <c r="D207" t="s">
+        <v>246</v>
+      </c>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="5"/>
-      <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
+    <row r="208" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>224</v>
+      </c>
+      <c r="B208" t="s">
+        <v>247</v>
+      </c>
+      <c r="C208" t="s">
+        <v>22</v>
+      </c>
+      <c r="D208" t="s">
+        <v>246</v>
+      </c>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="5"/>
-      <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
+    <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>224</v>
+      </c>
+      <c r="B209" t="s">
+        <v>248</v>
+      </c>
+      <c r="C209" t="s">
+        <v>43</v>
+      </c>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="5"/>
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
+    <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>224</v>
+      </c>
+      <c r="B210" t="s">
+        <v>249</v>
+      </c>
+      <c r="C210" t="s">
+        <v>36</v>
+      </c>
+      <c r="D210" t="s">
+        <v>250</v>
+      </c>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="5"/>
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
+    <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>224</v>
+      </c>
+      <c r="B211" t="s">
+        <v>251</v>
+      </c>
+      <c r="C211" t="s">
+        <v>26</v>
+      </c>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="5"/>
-      <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
+    <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>224</v>
+      </c>
+      <c r="B212" t="s">
+        <v>252</v>
+      </c>
+      <c r="C212" t="s">
+        <v>32</v>
+      </c>
+      <c r="D212" t="s">
+        <v>253</v>
+      </c>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="5"/>
-      <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
+    <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>224</v>
+      </c>
+      <c r="B213" t="s">
+        <v>254</v>
+      </c>
+      <c r="C213" t="s">
+        <v>73</v>
+      </c>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="5"/>
-      <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
+    <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>224</v>
+      </c>
+      <c r="B214" t="s">
+        <v>255</v>
+      </c>
+      <c r="C214" t="s">
+        <v>31</v>
+      </c>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="5"/>
-      <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
+    <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>224</v>
+      </c>
+      <c r="B215" t="s">
+        <v>256</v>
+      </c>
+      <c r="C215" t="s">
+        <v>22</v>
+      </c>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="5"/>
-      <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
+    <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>224</v>
+      </c>
+      <c r="B216" t="s">
+        <v>257</v>
+      </c>
+      <c r="C216" t="s">
+        <v>57</v>
+      </c>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="5"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
+    <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>224</v>
+      </c>
+      <c r="B217" t="s">
+        <v>258</v>
+      </c>
+      <c r="C217" t="s">
+        <v>44</v>
+      </c>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="5"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
+    <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>224</v>
+      </c>
+      <c r="B218" t="s">
+        <v>259</v>
+      </c>
+      <c r="C218" t="s">
+        <v>23</v>
+      </c>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -5547,7 +6090,7 @@
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -5555,7 +6098,7 @@
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -5563,7 +6106,7 @@
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -5571,7 +6114,7 @@
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -5579,7 +6122,7 @@
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -5587,7 +6130,7 @@
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -5595,7 +6138,7 @@
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -5603,7 +6146,7 @@
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -5611,7 +6154,7 @@
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -5619,7 +6162,7 @@
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -5627,7 +6170,7 @@
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -5635,7 +6178,7 @@
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -5643,7 +6186,7 @@
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -5651,7 +6194,7 @@
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -5659,7 +6202,7 @@
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -5667,7 +6210,7 @@
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -5675,7 +6218,7 @@
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -5683,7 +6226,7 @@
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -5691,7 +6234,7 @@
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -5699,7 +6242,7 @@
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -5707,7 +6250,7 @@
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -5715,7 +6258,7 @@
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -5723,7 +6266,7 @@
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -5731,7 +6274,7 @@
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -5740,52 +6283,46 @@
       <c r="F243" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C1189" type="list">
-      <formula1>controlled_vocabulary!$A$4:$A$9998</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>controlled_vocabulary!$A$4:$A$9998</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C1:C1189</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>223</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/massoudmaher/Documents/Code/immunedeconv/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080301E4-E49B-0949-985F-458DC85F8567}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F32C02-174C-5642-B35F-CFCA39BAADE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27100" windowHeight="17080" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1328,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3018,7 +3018,7 @@
   <dimension ref="A1:F243"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D184" sqref="D184"/>
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
